--- a/optobiology.xlsx
+++ b/optobiology.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janpiotraschke/git_repos/fachkurs_optobiology/analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15612C6C-0E28-BF47-BCEF-766DA9545311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A676DCB5-1793-014E-A359-CA96B9AB0B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{0747FCF5-9BB9-A240-971F-88470ED95DB6}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="2" xr2:uid="{0747FCF5-9BB9-A240-971F-88470ED95DB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="1a-MT detyrosination" sheetId="1" r:id="rId1"/>
+    <sheet name="1b-MT Acetylation" sheetId="2" r:id="rId2"/>
+    <sheet name="2a-Lysosomes" sheetId="3" r:id="rId3"/>
+    <sheet name="2b-EB3 comets" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,16 +36,621 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Hello World</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="148">
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>DMSO</t>
+  </si>
+  <si>
+    <t>Taxol</t>
+  </si>
+  <si>
+    <t>2 h</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Dilutionfactor</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Notizen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immer nur an einer Stelle der Well-platte absaugen (am Boden bzw. Rand), damit man </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicht den Zellrasen zerstört </t>
+  </si>
+  <si>
+    <t>(zuerst 2 h und nach 1,5h die 30 min Behandlung)</t>
+  </si>
+  <si>
+    <t>Zelllinie</t>
+  </si>
+  <si>
+    <t>Zellinie</t>
+  </si>
+  <si>
+    <t>COS-7</t>
+  </si>
+  <si>
+    <t>Passage</t>
+  </si>
+  <si>
+    <t>13+4</t>
+  </si>
+  <si>
+    <t>Spezies</t>
+  </si>
+  <si>
+    <t>Organ</t>
+  </si>
+  <si>
+    <t>Kidney</t>
+  </si>
+  <si>
+    <t>Cercopithecus aethiops</t>
+  </si>
+  <si>
+    <t>Morphologie</t>
+  </si>
+  <si>
+    <t>Fibroblast</t>
+  </si>
+  <si>
+    <t>CRL-1651</t>
+  </si>
+  <si>
+    <t>ATCC</t>
+  </si>
+  <si>
+    <t>Compound-Treatment</t>
+  </si>
+  <si>
+    <t>DMSO-&gt; Control</t>
+  </si>
+  <si>
+    <t>Staining Protocol</t>
+  </si>
+  <si>
+    <t>Leere Wells mit Wasser/PBS/Medium auffüllen gegen Kondensation</t>
+  </si>
+  <si>
+    <t>Fixierungsmedium absaugen</t>
+  </si>
+  <si>
+    <t>Wellplatte vorsichtig auf einem Färbebank überführen</t>
+  </si>
+  <si>
+    <t>250 uL 0.2% Triton X 100 für 10 min inkubieren</t>
+  </si>
+  <si>
+    <t>Wells</t>
+  </si>
+  <si>
+    <t>pro Well</t>
+  </si>
+  <si>
+    <t>uL</t>
+  </si>
+  <si>
+    <t>Verdünnungsfaktor</t>
+  </si>
+  <si>
+    <t>Triton-X</t>
+  </si>
+  <si>
+    <t>PBS</t>
+  </si>
+  <si>
+    <t>-&gt; gleich für alle Wells mit Überschuss in einem Eppi herstellen</t>
+  </si>
+  <si>
+    <t>Stock conc</t>
+  </si>
+  <si>
+    <t>End conc</t>
+  </si>
+  <si>
+    <t>Endconc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>500µM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mit 4% PFA/4% sucrose in PBS fixieren für 10-15 min</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>1 mL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PBS waschen -&gt;  5 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>1 mL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BB-HE bei RT für 1h blocken</t>
+    </r>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Student X</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Blocklsg</t>
+  </si>
+  <si>
+    <t>-&gt; Bei der kleinen Verdünnung macht das kein unterschied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocklösung absaugen </t>
+  </si>
+  <si>
+    <t>40 uL pro Well mit 1° Antikorper bei 4°C über Nacht inkubieren -&gt; verkehrtherum abdecken inkubieren (einfach umdrehen)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>1 mL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PBS waschen -&gt;  10 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
+    </r>
+  </si>
+  <si>
+    <t>Platte umdrehen</t>
+  </si>
+  <si>
+    <t>phalloidin-Atto 647N</t>
+  </si>
+  <si>
+    <t>Antikörper</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Ref.Nr.</t>
+  </si>
+  <si>
+    <t>Hersteller</t>
+  </si>
+  <si>
+    <t>Phalloidin-Atto-647N</t>
+  </si>
+  <si>
+    <t>DAPI</t>
+  </si>
+  <si>
+    <t>1° - Rabbit anti-detyr-tubulin</t>
+  </si>
+  <si>
+    <t>1° - mouse anti-α-tubulin</t>
+  </si>
+  <si>
+    <t>2° - Anti mouse- Alexa Fluor 488</t>
+  </si>
+  <si>
+    <t>2° - Anti rabbit - Alexa Fluor 568</t>
+  </si>
+  <si>
+    <t>ab48389</t>
+  </si>
+  <si>
+    <t>T5168</t>
+  </si>
+  <si>
+    <t>A-11001</t>
+  </si>
+  <si>
+    <t>A-11036</t>
+  </si>
+  <si>
+    <t>Abcam</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>Thermo Fischer</t>
+  </si>
+  <si>
+    <t>Detyrosinates Alpha Tublin</t>
+  </si>
+  <si>
+    <t>Alpha Tubulin 4a</t>
+  </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>Mouse Antibodies</t>
+  </si>
+  <si>
+    <t>Rabbit Antibodies</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Antikörper/ Farbstoff</t>
+  </si>
+  <si>
+    <t>Farbstoff</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>1 mL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PBS waschen -&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>2-5 min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inkubieren und wieder absaugen (2x insgesamt machen)</t>
+    </r>
+  </si>
+  <si>
+    <t>40 uL pro Well mit 2° Antikörper und phalloidin-Atto 647N in Blocklsg für 1h bei RT inkubieren -&gt; verkehrtherum abdecken</t>
+  </si>
+  <si>
+    <t>100 uL DAPI (1ug/mL) pro Well für 10 min bei RT inkubieren -&gt; NICHT umdrehen</t>
+  </si>
+  <si>
+    <t>-&gt; Alles in ein Eppi herstellen</t>
+  </si>
+  <si>
+    <t>-&gt; alles in ein Eppi herstellen</t>
+  </si>
+  <si>
+    <t>Stoc conc</t>
+  </si>
+  <si>
+    <t>-&gt; oder gleich 1 mL herstellen</t>
+  </si>
+  <si>
+    <t>-&gt; in Lab 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>1 mL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PBS waschen -&gt; PBS rauf kurz schwenken und dann absaugen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1 mL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Wasser (VE-Wasser oder normales)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve"> kurz reinpipettieren und absaugen</t>
+    </r>
+  </si>
+  <si>
+    <t>Eindeckeln mit Mowiol (Je nach Fläche 1-2 Tropfen raufgeben und mit einem Deckgläschen raufgeben)</t>
+  </si>
+  <si>
+    <t>Trocknen lassen und dann mikroskopieren</t>
+  </si>
+  <si>
+    <t>Platelayout</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Für 3 Wells (Überschuss) herstellen -&gt; 3mL</t>
+  </si>
+  <si>
+    <t>nM</t>
+  </si>
+  <si>
+    <t>Nach jeder Behandlung in den Inkubator bei 37°C/5% CO2</t>
+  </si>
+  <si>
+    <t>nach 2h Medium + Compound absaugen</t>
+  </si>
+  <si>
+    <t>10% FCS</t>
+  </si>
+  <si>
+    <t>Gibco Medium</t>
+  </si>
+  <si>
+    <t>Medium:</t>
+  </si>
+  <si>
+    <t>Substanzen jeweils in einem 5mL Eppi herstellen</t>
+  </si>
+  <si>
+    <t>Wenn es keine großen Pipetten gibt (Lila/rote Pipetten) dann das Volumen durch 3 Teilen</t>
+  </si>
+  <si>
+    <t>bsp</t>
+  </si>
+  <si>
+    <t>V = 2970</t>
+  </si>
+  <si>
+    <t>-&gt; 990 uL. Drei mal pipettieren</t>
+  </si>
+  <si>
+    <t>Wenn es kein Absaugmöglichkeit gibt, mit der Pipette einfach das wegpipettieren</t>
+  </si>
+  <si>
+    <t>1°Antibody</t>
+  </si>
+  <si>
+    <t>Anti-rabbit</t>
+  </si>
+  <si>
+    <t>Anti-mouse</t>
+  </si>
+  <si>
+    <t>2° Antibody</t>
+  </si>
+  <si>
+    <t>Hier 600 uL herstellen, damit man das kleinste Volumen mit 1uL pipettieren kann</t>
+  </si>
+  <si>
+    <t>Hier 200 uL herstellen -A für 5 Wells gerechnet</t>
+  </si>
+  <si>
+    <t>End Conc</t>
+  </si>
+  <si>
+    <t>ug/mL</t>
+  </si>
+  <si>
+    <t>Actin Filaments/NS</t>
+  </si>
+  <si>
+    <t>-&gt; NS = Nukleinsäuren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA </t>
+  </si>
+  <si>
+    <t>Medium absaugen und Zellen mit 1mL Substanz nach dem Platelayout behandeln -&gt; Zellen die nicht behandelt werden, noch nicht absaugen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellanzahl: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student 1 </t>
+  </si>
+  <si>
+    <t>Student 2</t>
+  </si>
+  <si>
+    <t>DMEM</t>
+  </si>
+  <si>
+    <t>Fugene</t>
+  </si>
+  <si>
+    <t>lamp1 DNA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>per Well</t>
+    </r>
+  </si>
+  <si>
+    <t>delute the DNA with the 10x H2O volume</t>
+  </si>
+  <si>
+    <t>first add the DMEM</t>
+  </si>
+  <si>
+    <t>then add the fugene and mix carefully</t>
+  </si>
+  <si>
+    <t>incubate for 5min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add the DNA and mix </t>
+  </si>
+  <si>
+    <t>Preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incubate for 15-20min at room temperature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat the transfection protocoll for the other well </t>
+  </si>
+  <si>
+    <t>preheat 15ml growing Medium in the water bath to 37°C</t>
+  </si>
+  <si>
+    <t>change the medium of the COS-7 cells to fresh medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfection Protocol </t>
+  </si>
+  <si>
+    <t>Prepare the transfection mix in an Epi:</t>
+  </si>
+  <si>
+    <t>incubate</t>
+  </si>
+  <si>
+    <t>add 200uL of each transfection mix dropwise to a well</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,16 +658,90 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Textkörper)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Textkörper)"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF0EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF8E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -67,18 +749,376 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEFF8E9"/>
+      <color rgb="FFFAF0EE"/>
+      <color rgb="FFF9ECEB"/>
+      <color rgb="FFF7E3E2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -387,20 +1427,1489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32C55F2-64D1-5747-8AFC-58CEA49DB674}">
-  <dimension ref="C6"/>
+  <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="I5:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B1" s="2">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="28"/>
+      <c r="O9" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="14">
+        <v>65906</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11" s="32"/>
+      <c r="O11" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="33"/>
+    </row>
+    <row r="13" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D30" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>4000</v>
+      </c>
+      <c r="I31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="18"/>
+      <c r="M31" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>103</v>
+      </c>
+      <c r="K32" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <f>D31/D32</f>
+        <v>100</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <f>H31/H32</f>
+        <v>400</v>
+      </c>
+      <c r="K33" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="O33" s="18"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K34" s="42"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="O34" s="18"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C35" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="45">
+        <f>D37/D33</f>
+        <v>30</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="46">
+        <f>H37/H33</f>
+        <v>7.5</v>
+      </c>
+      <c r="I35" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="42"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="O35" s="18"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C36" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="45">
+        <f>D37-D35</f>
+        <v>2970</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="46">
+        <f>H37-H35</f>
+        <v>2992.5</v>
+      </c>
+      <c r="I36" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="42"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C37" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="45">
+        <v>3000</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="46">
+        <v>3000</v>
+      </c>
+      <c r="I37" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="42"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56">
+        <v>250</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58">
+        <v>0.2</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59">
+        <f>20/0.2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="9">
+        <f>D63/D59</f>
+        <v>12.5</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C62" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="9">
+        <f>D63-D61</f>
+        <v>1237.5</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C63" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="8">
+        <f>D55*D56</f>
+        <v>1250</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C80" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" s="9">
+        <f>D83/D77</f>
+        <v>1.5</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C81" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="9">
+        <f>D83/D78</f>
+        <v>1</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C82" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="9">
+        <f>D83</f>
+        <v>600</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C83" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="8">
+        <v>600</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B86" s="2">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C97" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C98" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C99" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C101" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101" s="9">
+        <f>D105/D97</f>
+        <v>0.5</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C102" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102" s="9">
+        <f>D105/D98</f>
+        <v>0.5</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C103" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" s="9">
+        <f>D105/D99</f>
+        <v>2</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C104" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="9">
+        <f>D105</f>
+        <v>200</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M104" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C105" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="8">
+        <v>200</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D112" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C113" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D113">
+        <v>1000</v>
+      </c>
+      <c r="E113" t="s">
+        <v>122</v>
+      </c>
+      <c r="G113" t="s">
+        <v>127</v>
+      </c>
+      <c r="H113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C114" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C117" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D117" s="9">
+        <f>D119/D115</f>
+        <v>0.5</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C118" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" s="9">
+        <f>D119</f>
+        <v>500</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C119" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="9">
+        <f>100*H113</f>
+        <v>500</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A123" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="37"/>
+      <c r="K123" s="37"/>
+      <c r="L123" s="37"/>
+      <c r="M123" s="37"/>
+      <c r="N123" s="37"/>
+      <c r="O123" s="37"/>
+      <c r="P123" s="37"/>
+      <c r="Q123" s="37"/>
+      <c r="R123" s="37"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865ABF89-C3DD-8A46-ACD0-DACCD4848C81}">
+  <dimension ref="A3:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B418F536-D2A8-4F42-BEB3-EBF867EDFB00}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="C19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="62">
+        <f>2*200</f>
+        <v>400</v>
+      </c>
+      <c r="D20" s="62">
+        <v>9.6</v>
+      </c>
+      <c r="E20" s="62">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="58"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="58"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F34" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="62">
+        <v>200</v>
+      </c>
+      <c r="G35" s="62">
+        <v>4.8</v>
+      </c>
+      <c r="H35" s="62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7FF243-707B-0A40-87A2-22C5C45DC450}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/optobiology.xlsx
+++ b/optobiology.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janpiotraschke/git_repos/fachkurs_optobiology/analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janpiotraschke/git_repos/fachkurs_optobiology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A676DCB5-1793-014E-A359-CA96B9AB0B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB6079A-986D-6748-BFDD-D0740E6E9D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="2" xr2:uid="{0747FCF5-9BB9-A240-971F-88470ED95DB6}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="2a-Lysosomes" sheetId="3" r:id="rId3"/>
     <sheet name="2b-EB3 comets" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="150">
   <si>
     <t>-</t>
   </si>
@@ -576,9 +576,6 @@
     <t>Student 2</t>
   </si>
   <si>
-    <t>DMEM</t>
-  </si>
-  <si>
     <t>Fugene</t>
   </si>
   <si>
@@ -601,12 +598,6 @@
     </r>
   </si>
   <si>
-    <t>delute the DNA with the 10x H2O volume</t>
-  </si>
-  <si>
-    <t>first add the DMEM</t>
-  </si>
-  <si>
     <t>then add the fugene and mix carefully</t>
   </si>
   <si>
@@ -641,6 +632,21 @@
   </si>
   <si>
     <t>add 200uL of each transfection mix dropwise to a well</t>
+  </si>
+  <si>
+    <t>DMEM-</t>
+  </si>
+  <si>
+    <t>first add the DMEM-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fugene </t>
+  </si>
+  <si>
+    <t>lamp1 DNA  [0.1ug/uL]</t>
+  </si>
+  <si>
+    <t>delute the 1ug/uL DNA with the 10x H2O volume to 0.1ug/uL</t>
   </si>
 </sst>
 </file>
@@ -648,7 +654,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -988,9 +994,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1002,51 +1005,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1104,7 +1080,37 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1429,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32C55F2-64D1-5747-8AFC-58CEA49DB674}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="I5:Q11"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1445,221 +1451,221 @@
         <v>44739</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25" t="s">
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25" t="s">
+      <c r="N5" s="57"/>
+      <c r="O5" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="21" t="s">
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14" t="s">
+      <c r="N6" s="55"/>
+      <c r="O6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29" t="s">
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="30" t="s">
+      <c r="N7" s="58"/>
+      <c r="O7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="21" t="s">
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="21" t="s">
+      <c r="N8" s="55"/>
+      <c r="O8" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="Q8" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29" t="s">
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="29" t="s">
+      <c r="N9" s="58"/>
+      <c r="O9" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="21" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13" t="s">
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="55"/>
+      <c r="O10" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="12">
         <v>65906</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="R10" s="55" t="s">
+      <c r="R10" s="45" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="32" t="s">
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="33" t="s">
+      <c r="N11" s="53"/>
+      <c r="O11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="33"/>
-    </row>
-    <row r="13" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="P11" s="24"/>
+      <c r="Q11" s="23"/>
+    </row>
+    <row r="13" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1703,57 +1709,57 @@
     <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="C21" s="1"/>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="55"/>
+      <c r="G21" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="J21" s="12"/>
+      <c r="H21" s="59"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="16"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="15"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="16"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="15"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="C24" s="1"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="16"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
@@ -1774,10 +1780,10 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="48" t="s">
+      <c r="H30" s="38" t="s">
         <v>2</v>
       </c>
       <c r="M30" t="s">
@@ -1792,7 +1798,7 @@
       <c r="D31">
         <v>100</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G31" t="s">
@@ -1804,27 +1810,27 @@
       <c r="I31" t="s">
         <v>103</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="K31" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="L31" s="18"/>
-      <c r="M31" s="53" t="s">
+      <c r="L31" s="16"/>
+      <c r="M31" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <v>1</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="39" t="s">
         <v>101</v>
       </c>
       <c r="G32" t="s">
@@ -1836,16 +1842,16 @@
       <c r="I32" t="s">
         <v>103</v>
       </c>
-      <c r="K32" s="52" t="s">
+      <c r="K32" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="L32" s="43"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
@@ -1862,120 +1868,120 @@
         <f>H31/H32</f>
         <v>400</v>
       </c>
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18" t="s">
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="O33" s="18"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K34" s="42"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18" t="s">
+      <c r="K34" s="32"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="O34" s="18"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="35">
         <f>D37/D33</f>
         <v>30</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="46">
+      <c r="H35" s="36">
         <f>H37/H33</f>
         <v>7.5</v>
       </c>
-      <c r="I35" s="46" t="s">
+      <c r="I35" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="54" t="s">
+      <c r="K35" s="32"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="O35" s="18"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="35">
         <f>D37-D35</f>
         <v>2970</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="51" t="s">
+      <c r="G36" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="46">
+      <c r="H36" s="36">
         <f>H37-H35</f>
         <v>2992.5</v>
       </c>
-      <c r="I36" s="46" t="s">
+      <c r="I36" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="42"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="35">
         <v>3000</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="36">
         <v>3000</v>
       </c>
-      <c r="I37" s="46" t="s">
+      <c r="I37" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -2001,9 +2007,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8" t="s">
+    <row r="45" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2065,7 +2071,7 @@
       <c r="D57">
         <v>20</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2076,7 +2082,7 @@
       <c r="D58">
         <v>0.2</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2093,41 +2099,41 @@
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <f>D63/D59</f>
         <v>12.5</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <f>D63-D61</f>
         <v>1237.5</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="7">
         <f>D55*D56</f>
         <v>1250</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2196,41 +2202,41 @@
       <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="8">
         <f>D83/D77</f>
         <v>1.5</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="8">
         <f>D83/D78</f>
         <v>1</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="8">
         <f>D83</f>
         <v>600</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="9" t="s">
         <v>53</v>
       </c>
       <c r="M82" t="s">
@@ -2238,16 +2244,16 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="7">
         <v>600</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2315,50 +2321,50 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="8">
         <f>D105/D97</f>
         <v>0.5</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="8">
         <f>D105/D98</f>
         <v>0.5</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="8">
         <f>D105/D99</f>
         <v>2</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="8">
         <f>D105</f>
         <v>200</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M104" t="s">
@@ -2366,16 +2372,16 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="7">
         <v>200</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F105" s="10" t="s">
+      <c r="F105" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2440,41 +2446,41 @@
       <c r="C116" s="1"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D117" s="8">
         <f>D119/D115</f>
         <v>0.5</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="8">
         <f>D119</f>
         <v>500</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="8">
         <f>100*H113</f>
         <v>500</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F119" s="10" t="s">
+      <c r="F119" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2487,28 +2493,28 @@
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A123" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="11" t="s">
+      <c r="A123" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="37"/>
-      <c r="J123" s="37"/>
-      <c r="K123" s="37"/>
-      <c r="L123" s="37"/>
-      <c r="M123" s="37"/>
-      <c r="N123" s="37"/>
-      <c r="O123" s="37"/>
-      <c r="P123" s="37"/>
-      <c r="Q123" s="37"/>
-      <c r="R123" s="37"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="27"/>
+      <c r="M123" s="27"/>
+      <c r="N123" s="27"/>
+      <c r="O123" s="27"/>
+      <c r="P123" s="27"/>
+      <c r="Q123" s="27"/>
+      <c r="R123" s="27"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -2528,6 +2534,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="M5:N5"/>
@@ -2536,14 +2550,6 @@
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2563,28 +2569,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
@@ -2598,15 +2604,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B418F536-D2A8-4F42-BEB3-EBF867EDFB00}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2618,9 +2626,9 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2629,7 +2637,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
@@ -2638,7 +2646,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
@@ -2647,7 +2655,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
@@ -2656,7 +2664,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
@@ -2665,7 +2673,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
@@ -2674,7 +2682,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
@@ -2687,10 +2695,10 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
-        <v>139</v>
+    <row r="13" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2701,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2712,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2720,14 +2728,14 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="C19" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>132</v>
+      <c r="C19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2735,14 +2743,14 @@
       <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="52">
         <f>2*200</f>
         <v>400</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="52">
         <v>9.6</v>
       </c>
-      <c r="E20" s="62">
+      <c r="E20" s="52">
         <v>32</v>
       </c>
     </row>
@@ -2775,110 +2783,110 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="58"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="48"/>
     </row>
     <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="58"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="48"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8" t="s">
-        <v>144</v>
+    <row r="30" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="9" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
+      <c r="D35" s="52">
+        <v>200</v>
+      </c>
+      <c r="E35" s="52">
+        <v>4.8</v>
+      </c>
+      <c r="F35" s="52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="62">
-        <v>200</v>
-      </c>
-      <c r="G35" s="62">
-        <v>4.8</v>
-      </c>
-      <c r="H35" s="62">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -2886,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -2894,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/optobiology.xlsx
+++ b/optobiology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janpiotraschke/git_repos/fachkurs_optobiology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB6079A-986D-6748-BFDD-D0740E6E9D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425C2DB0-5EB3-294C-BAE7-F0AD23A4A90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="2" xr2:uid="{0747FCF5-9BB9-A240-971F-88470ED95DB6}"/>
   </bookViews>
@@ -598,24 +598,15 @@
     </r>
   </si>
   <si>
-    <t>then add the fugene and mix carefully</t>
-  </si>
-  <si>
     <t>incubate for 5min</t>
   </si>
   <si>
-    <t xml:space="preserve">add the DNA and mix </t>
-  </si>
-  <si>
     <t>Preparation</t>
   </si>
   <si>
     <t xml:space="preserve">incubate for 15-20min at room temperature </t>
   </si>
   <si>
-    <t xml:space="preserve">repeat the transfection protocoll for the other well </t>
-  </si>
-  <si>
     <t>preheat 15ml growing Medium in the water bath to 37°C</t>
   </si>
   <si>
@@ -625,15 +616,9 @@
     <t xml:space="preserve">Transfection Protocol </t>
   </si>
   <si>
-    <t>Prepare the transfection mix in an Epi:</t>
-  </si>
-  <si>
     <t>incubate</t>
   </si>
   <si>
-    <t>add 200uL of each transfection mix dropwise to a well</t>
-  </si>
-  <si>
     <t>DMEM-</t>
   </si>
   <si>
@@ -646,7 +631,124 @@
     <t>lamp1 DNA  [0.1ug/uL]</t>
   </si>
   <si>
-    <t>delute the 1ug/uL DNA with the 10x H2O volume to 0.1ug/uL</t>
+    <t>repeat the transfection protocoll for the other Eppi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delute the 1ug/uL DNA with the 10x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>H2O (Dnase/Rnase free Water or VE-Water)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> volume to 0.1ug/uL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">then add the fugene and mix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>how to mix?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> carefully</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add the DNA and mix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>(how?)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prepare the transfection mix in an Eppi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>(or can we do it all in ones?)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add 200uL of each transfection mix dropwise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">(also nicht an der Wand runterlaufen lassen !) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to a well</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -656,7 +758,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -694,6 +796,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri (Textkörper)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri (Textkörper)"/>
     </font>
   </fonts>
@@ -1081,34 +1189,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1435,7 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32C55F2-64D1-5747-8AFC-58CEA49DB674}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="D31" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
@@ -1468,18 +1576,18 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="57"/>
+      <c r="N5" s="56"/>
       <c r="O5" s="19" t="s">
         <v>86</v>
       </c>
@@ -1497,18 +1605,18 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="55" t="s">
+      <c r="M6" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="55"/>
+      <c r="N6" s="53"/>
       <c r="O6" s="18" t="s">
         <v>0</v>
       </c>
@@ -1526,18 +1634,18 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="58"/>
+      <c r="N7" s="59"/>
       <c r="O7" s="21" t="s">
         <v>0</v>
       </c>
@@ -1558,18 +1666,18 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="62"/>
       <c r="L8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="M8" s="55" t="s">
+      <c r="M8" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="N8" s="55"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="18" t="s">
         <v>81</v>
       </c>
@@ -1587,18 +1695,18 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="58" t="s">
+      <c r="M9" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="58"/>
+      <c r="N9" s="59"/>
       <c r="O9" s="21" t="s">
         <v>82</v>
       </c>
@@ -1616,18 +1724,18 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="55" t="s">
+      <c r="M10" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="N10" s="55"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="18" t="s">
         <v>83</v>
       </c>
@@ -1642,18 +1750,18 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="M11" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="N11" s="53"/>
+      <c r="N11" s="61"/>
       <c r="O11" s="23" t="s">
         <v>84</v>
       </c>
@@ -1709,14 +1817,14 @@
     <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="C21" s="1"/>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="59" t="s">
+      <c r="F21" s="53"/>
+      <c r="G21" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="59"/>
+      <c r="H21" s="54"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2534,6 +2642,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I5:K5"/>
@@ -2542,14 +2658,6 @@
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2604,10 +2712,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B418F536-D2A8-4F42-BEB3-EBF867EDFB00}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2698,7 +2806,7 @@
     <row r="13" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2709,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2720,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2728,125 +2836,107 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="C19" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="48"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="48"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C31" s="52">
         <f>2*200</f>
         <v>400</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D31" s="52">
         <v>9.6</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E31" s="52">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="48"/>
-    </row>
-    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="48"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-    </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D34" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="8" t="s">
+      <c r="B34" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F36" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="52">
+      <c r="D37" s="52">
         <v>200</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E37" s="52">
         <v>4.8</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F37" s="52">
         <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2854,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2862,7 +2952,15 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2870,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2878,15 +2976,15 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -2894,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -2902,7 +3000,15 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/optobiology.xlsx
+++ b/optobiology.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janpiotraschke/git_repos/fachkurs_optobiology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425C2DB0-5EB3-294C-BAE7-F0AD23A4A90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291ABC9D-A1A5-7548-AAB3-F9D9BFADC5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="2" xr2:uid="{0747FCF5-9BB9-A240-971F-88470ED95DB6}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="3" xr2:uid="{0747FCF5-9BB9-A240-971F-88470ED95DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="1a-MT detyrosination" sheetId="1" r:id="rId1"/>
-    <sheet name="1b-MT Acetylation" sheetId="2" r:id="rId2"/>
+    <sheet name="1b-MT Acetylation" sheetId="5" r:id="rId2"/>
     <sheet name="2a-Lysosomes" sheetId="3" r:id="rId3"/>
-    <sheet name="2b-EB3 comets" sheetId="4" r:id="rId4"/>
+    <sheet name="2b-EB3 comets" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="172">
   <si>
     <t>-</t>
   </si>
@@ -51,9 +53,6 @@
   </si>
   <si>
     <t>30 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
   </si>
   <si>
     <t>Dilutionfactor</t>
@@ -367,6 +366,27 @@
     <t>Farbstoff</t>
   </si>
   <si>
+    <t>40 uL pro Well mit 2° Antikörper und phalloidin-Atto 647N in Blocklsg für 1h bei RT inkubieren -&gt; verkehrtherum abdecken</t>
+  </si>
+  <si>
+    <t>100 uL DAPI (1ug/mL) pro Well für 10 min bei RT inkubieren -&gt; NICHT umdrehen</t>
+  </si>
+  <si>
+    <t>-&gt; Alles in ein Eppi herstellen</t>
+  </si>
+  <si>
+    <t>-&gt; alles in ein Eppi herstellen</t>
+  </si>
+  <si>
+    <t>Stoc conc</t>
+  </si>
+  <si>
+    <t>-&gt; oder gleich 1 mL herstellen</t>
+  </si>
+  <si>
+    <t>-&gt; in Lab 1</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -383,7 +403,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> PBS waschen -&gt;  </t>
+      <t xml:space="preserve"> PBS waschen -&gt; PBS rauf kurz schwenken und dann absaugen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1 mL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -391,48 +426,185 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>2-5 min</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Wasser (VE-Wasser oder normales)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve"> kurz reinpipettieren und absaugen</t>
+    </r>
+  </si>
+  <si>
+    <t>Eindeckeln mit Mowiol (Je nach Fläche 1-2 Tropfen raufgeben und mit einem Deckgläschen raufgeben)</t>
+  </si>
+  <si>
+    <t>Trocknen lassen und dann mikroskopieren</t>
+  </si>
+  <si>
+    <t>Platelayout</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Für 3 Wells (Überschuss) herstellen -&gt; 3mL</t>
+  </si>
+  <si>
+    <t>nM</t>
+  </si>
+  <si>
+    <t>Nach jeder Behandlung in den Inkubator bei 37°C/5% CO2</t>
+  </si>
+  <si>
+    <t>nach 2h Medium + Compound absaugen</t>
+  </si>
+  <si>
+    <t>10% FCS</t>
+  </si>
+  <si>
+    <t>Gibco Medium</t>
+  </si>
+  <si>
+    <t>Medium:</t>
+  </si>
+  <si>
+    <t>Substanzen jeweils in einem 5mL Eppi herstellen</t>
+  </si>
+  <si>
+    <t>Wenn es keine großen Pipetten gibt (Lila/rote Pipetten) dann das Volumen durch 3 Teilen</t>
+  </si>
+  <si>
+    <t>bsp</t>
+  </si>
+  <si>
+    <t>V = 2970</t>
+  </si>
+  <si>
+    <t>-&gt; 990 uL. Drei mal pipettieren</t>
+  </si>
+  <si>
+    <t>Wenn es kein Absaugmöglichkeit gibt, mit der Pipette einfach das wegpipettieren</t>
+  </si>
+  <si>
+    <t>1°Antibody</t>
+  </si>
+  <si>
+    <t>Anti-rabbit</t>
+  </si>
+  <si>
+    <t>Anti-mouse</t>
+  </si>
+  <si>
+    <t>2° Antibody</t>
+  </si>
+  <si>
+    <t>Hier 600 uL herstellen, damit man das kleinste Volumen mit 1uL pipettieren kann</t>
+  </si>
+  <si>
+    <t>Hier 200 uL herstellen -A für 5 Wells gerechnet</t>
+  </si>
+  <si>
+    <t>End Conc</t>
+  </si>
+  <si>
+    <t>ug/mL</t>
+  </si>
+  <si>
+    <t>Actin Filaments/NS</t>
+  </si>
+  <si>
+    <t>-&gt; NS = Nukleinsäuren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA </t>
+  </si>
+  <si>
+    <t>Medium absaugen und Zellen mit 1mL Substanz nach dem Platelayout behandeln -&gt; Zellen die nicht behandelt werden, noch nicht absaugen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellanzahl: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student 1 </t>
+  </si>
+  <si>
+    <t>Student 2</t>
+  </si>
+  <si>
+    <t>Fugene</t>
+  </si>
+  <si>
+    <t>lamp1 DNA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> inkubieren und wieder absaugen (2x insgesamt machen)</t>
-    </r>
-  </si>
-  <si>
-    <t>40 uL pro Well mit 2° Antikörper und phalloidin-Atto 647N in Blocklsg für 1h bei RT inkubieren -&gt; verkehrtherum abdecken</t>
-  </si>
-  <si>
-    <t>100 uL DAPI (1ug/mL) pro Well für 10 min bei RT inkubieren -&gt; NICHT umdrehen</t>
-  </si>
-  <si>
-    <t>-&gt; Alles in ein Eppi herstellen</t>
-  </si>
-  <si>
-    <t>-&gt; alles in ein Eppi herstellen</t>
-  </si>
-  <si>
-    <t>Stoc conc</t>
-  </si>
-  <si>
-    <t>-&gt; oder gleich 1 mL herstellen</t>
-  </si>
-  <si>
-    <t>-&gt; in Lab 1</t>
-  </si>
-  <si>
+      <t>per Well</t>
+    </r>
+  </si>
+  <si>
+    <t>incubate for 5min</t>
+  </si>
+  <si>
+    <t>Preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incubate for 15-20min at room temperature </t>
+  </si>
+  <si>
+    <t>preheat 15ml growing Medium in the water bath to 37°C</t>
+  </si>
+  <si>
+    <t>change the medium of the COS-7 cells to fresh medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfection Protocol </t>
+  </si>
+  <si>
+    <t>incubate</t>
+  </si>
+  <si>
+    <t>DMEM-</t>
+  </si>
+  <si>
+    <t>first add the DMEM-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fugene </t>
+  </si>
+  <si>
+    <t>lamp1 DNA  [0.1ug/uL]</t>
+  </si>
+  <si>
+    <t>repeat the transfection protocoll for the other Eppi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delute the 1ug/uL DNA with the 10x </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>1 mL</t>
+      <t>H2O (Dnase/Rnase free Water or VE-Water)</t>
     </r>
     <r>
       <rPr>
@@ -442,22 +614,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> PBS waschen -&gt; PBS rauf kurz schwenken und dann absaugen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1 mL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+      <t xml:space="preserve"> volume to 0.1ug/uL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">then add the fugene and mix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -465,177 +637,22 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>Wasser (VE-Wasser oder normales)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t xml:space="preserve"> kurz reinpipettieren und absaugen</t>
-    </r>
-  </si>
-  <si>
-    <t>Eindeckeln mit Mowiol (Je nach Fläche 1-2 Tropfen raufgeben und mit einem Deckgläschen raufgeben)</t>
-  </si>
-  <si>
-    <t>Trocknen lassen und dann mikroskopieren</t>
-  </si>
-  <si>
-    <t>Platelayout</t>
-  </si>
-  <si>
-    <t>Compound</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Für 3 Wells (Überschuss) herstellen -&gt; 3mL</t>
-  </si>
-  <si>
-    <t>nM</t>
-  </si>
-  <si>
-    <t>Nach jeder Behandlung in den Inkubator bei 37°C/5% CO2</t>
-  </si>
-  <si>
-    <t>nach 2h Medium + Compound absaugen</t>
-  </si>
-  <si>
-    <t>10% FCS</t>
-  </si>
-  <si>
-    <t>Gibco Medium</t>
-  </si>
-  <si>
-    <t>Medium:</t>
-  </si>
-  <si>
-    <t>Substanzen jeweils in einem 5mL Eppi herstellen</t>
-  </si>
-  <si>
-    <t>Wenn es keine großen Pipetten gibt (Lila/rote Pipetten) dann das Volumen durch 3 Teilen</t>
-  </si>
-  <si>
-    <t>bsp</t>
-  </si>
-  <si>
-    <t>V = 2970</t>
-  </si>
-  <si>
-    <t>-&gt; 990 uL. Drei mal pipettieren</t>
-  </si>
-  <si>
-    <t>Wenn es kein Absaugmöglichkeit gibt, mit der Pipette einfach das wegpipettieren</t>
-  </si>
-  <si>
-    <t>1°Antibody</t>
-  </si>
-  <si>
-    <t>Anti-rabbit</t>
-  </si>
-  <si>
-    <t>Anti-mouse</t>
-  </si>
-  <si>
-    <t>2° Antibody</t>
-  </si>
-  <si>
-    <t>Hier 600 uL herstellen, damit man das kleinste Volumen mit 1uL pipettieren kann</t>
-  </si>
-  <si>
-    <t>Hier 200 uL herstellen -A für 5 Wells gerechnet</t>
-  </si>
-  <si>
-    <t>End Conc</t>
-  </si>
-  <si>
-    <t>ug/mL</t>
-  </si>
-  <si>
-    <t>Actin Filaments/NS</t>
-  </si>
-  <si>
-    <t>-&gt; NS = Nukleinsäuren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA </t>
-  </si>
-  <si>
-    <t>Medium absaugen und Zellen mit 1mL Substanz nach dem Platelayout behandeln -&gt; Zellen die nicht behandelt werden, noch nicht absaugen!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wellanzahl: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student 1 </t>
-  </si>
-  <si>
-    <t>Student 2</t>
-  </si>
-  <si>
-    <t>Fugene</t>
-  </si>
-  <si>
-    <t>lamp1 DNA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">uL </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>how to mix?)</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>per Well</t>
-    </r>
-  </si>
-  <si>
-    <t>incubate for 5min</t>
-  </si>
-  <si>
-    <t>Preparation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incubate for 15-20min at room temperature </t>
-  </si>
-  <si>
-    <t>preheat 15ml growing Medium in the water bath to 37°C</t>
-  </si>
-  <si>
-    <t>change the medium of the COS-7 cells to fresh medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfection Protocol </t>
-  </si>
-  <si>
-    <t>incubate</t>
-  </si>
-  <si>
-    <t>DMEM-</t>
-  </si>
-  <si>
-    <t>first add the DMEM-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fugene </t>
-  </si>
-  <si>
-    <t>lamp1 DNA  [0.1ug/uL]</t>
-  </si>
-  <si>
-    <t>repeat the transfection protocoll for the other Eppi</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">delute the 1ug/uL DNA with the 10x </t>
+      <t xml:space="preserve"> carefully</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add the DNA and mix </t>
     </r>
     <r>
       <rPr>
@@ -643,32 +660,37 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>H2O (Dnase/Rnase free Water or VE-Water)</t>
-    </r>
-    <r>
-      <rPr>
+      <t>(how?)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prepare the transfection mix in an Eppi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>(or can we do it all in ones?)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> volume to 0.1ug/uL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">then add the fugene and mix </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add 200uL of each transfection mix dropwise </t>
     </r>
     <r>
       <rPr>
@@ -676,7 +698,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>how to mix?)</t>
+      <t xml:space="preserve">(also nicht an der Wand runterlaufen lassen !) </t>
     </r>
     <r>
       <rPr>
@@ -686,50 +708,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> carefully</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">add the DNA and mix </t>
-    </r>
+      <t>to a well</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>(how?)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Prepare the transfection mix in an Eppi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t>(or can we do it all in ones?)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>1 mL</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">add 200uL of each transfection mix dropwise </t>
+      <t xml:space="preserve"> PBS waschen -&gt;  </t>
     </r>
     <r>
       <rPr>
@@ -737,7 +736,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t xml:space="preserve">(also nicht an der Wand runterlaufen lassen !) </t>
+      <t>5-10 min</t>
     </r>
     <r>
       <rPr>
@@ -747,8 +746,290 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>to a well</t>
-    </r>
+      <t xml:space="preserve"> inkubieren und wieder absaugen (2x insgesamt machen)</t>
+    </r>
+  </si>
+  <si>
+    <t>mouse anti-acetyl-tubulin</t>
+  </si>
+  <si>
+    <t>sc-23950</t>
+  </si>
+  <si>
+    <t>santa Cruz</t>
+  </si>
+  <si>
+    <t>Zellen sind schon im Medium, weshalb man nur DMSO und Taxol jeweils hinzugeben muss</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PBS waschen -&gt;   5-10 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PBS waschen -&gt;   5-10 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BB-HE bei RT für 1h blocken</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PBS waschen -&gt;   5-10 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PBS waschen -&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>5-10 min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inkubieren und wieder absaugen (2x insgesamt machen)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PBS waschen -&gt; PBS rauf kurz schwenken und dann absaugen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1 mL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Wasser kurz reinpipettieren und absaugen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>500µL -1 mL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mit 4% PFA/4% sucrose in PBS fixieren für </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>10-15 min</t>
+    </r>
+  </si>
+  <si>
+    <t>Prepare the complete transfection mix in an Eppi:</t>
+  </si>
+  <si>
+    <t>add 200uL of each transfection mix dropwise on multiple positions to a well</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add the DNA and mix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">with the pipette </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3x in and out)</t>
+    </r>
+  </si>
+  <si>
+    <t>then add the fugene and mix with the pipette (3x in and out) carefully</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delute the 1ug/uL DNA with the 10x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">H2O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>volume to 0.1ug/uL</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally: </t>
+  </si>
+  <si>
+    <t>EB3-GFP DNA  [0.1ug/uL]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incubate for 25min at room temperature </t>
+  </si>
+  <si>
+    <t>Notizen:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wachstum von MT findet nur in der Nähe der physiologischen </t>
+  </si>
+  <si>
+    <t>Temperatur (30°C) statt und zwar in Gegenwart von GTP</t>
   </si>
 </sst>
 </file>
@@ -758,7 +1039,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -804,8 +1085,15 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Textkörper)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,6 +1142,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -1091,7 +1385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1117,7 +1411,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1192,6 +1485,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1217,6 +1528,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1543,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32C55F2-64D1-5747-8AFC-58CEA49DB674}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1562,219 +1882,219 @@
     <row r="3" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I5" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="63"/>
+      <c r="O5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="60"/>
+      <c r="O6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="19" t="s">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="66"/>
+      <c r="O7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="60"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="60"/>
+      <c r="O8" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q5" s="19" t="s">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="66"/>
+      <c r="O9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="53"/>
-      <c r="O6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="59"/>
-      <c r="O7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" s="53"/>
-      <c r="O8" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" s="59"/>
-      <c r="O9" s="21" t="s">
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="60"/>
+      <c r="O10" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="N10" s="53"/>
-      <c r="O10" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="P10" s="12">
         <v>65906</v>
       </c>
-      <c r="Q10" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="45" t="s">
-        <v>124</v>
+      <c r="Q10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="44" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23"/>
+      <c r="I11" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="68"/>
+      <c r="O11" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="22"/>
     </row>
     <row r="13" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1782,18 +2102,18 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -1801,42 +2121,42 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="C21" s="1"/>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="54"/>
+      <c r="H21" s="61"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="46" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="14"/>
@@ -1846,13 +2166,13 @@
     <row r="23" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="46" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="14"/>
@@ -1862,8 +2182,8 @@
     <row r="24" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="C24" s="1"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="14"/>
       <c r="H24" s="4"/>
       <c r="I24" s="15"/>
@@ -1871,12 +2191,12 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -1884,46 +2204,46 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="38" t="s">
+      <c r="H30" s="37" t="s">
         <v>2</v>
       </c>
       <c r="M30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31">
         <v>100</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>4000</v>
       </c>
       <c r="I31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K31" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="16"/>
+      <c r="M31" s="42" t="s">
         <v>108</v>
-      </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="43" t="s">
-        <v>110</v>
       </c>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
@@ -1933,161 +2253,161 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
       </c>
-      <c r="E32" s="39" t="s">
-        <v>101</v>
+      <c r="E32" s="38" t="s">
+        <v>99</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H32">
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>103</v>
-      </c>
-      <c r="K32" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L32" s="33"/>
-      <c r="M32" s="34"/>
+        <v>101</v>
+      </c>
+      <c r="K32" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="L32" s="32"/>
+      <c r="M32" s="33"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
-      <c r="P32" s="32"/>
+      <c r="P32" s="31"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <f>D31/D32</f>
         <v>100</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H33">
         <f>H31/H32</f>
         <v>400</v>
       </c>
-      <c r="K33" s="42" t="s">
-        <v>107</v>
+      <c r="K33" s="41" t="s">
+        <v>105</v>
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O33" s="16"/>
-      <c r="P33" s="32"/>
+      <c r="P33" s="31"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K34" s="32"/>
+      <c r="K34" s="31"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O34" s="16"/>
-      <c r="P34" s="32"/>
+      <c r="P34" s="31"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="34">
         <f>D37/D33</f>
         <v>30</v>
       </c>
-      <c r="E35" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="36" t="s">
+      <c r="E35" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="35">
         <f>H37/H33</f>
         <v>7.5</v>
       </c>
-      <c r="I35" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="K35" s="32"/>
+      <c r="I35" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="31"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="44" t="s">
-        <v>113</v>
+      <c r="N35" s="43" t="s">
+        <v>111</v>
       </c>
       <c r="O35" s="16"/>
-      <c r="P35" s="32"/>
+      <c r="P35" s="31"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C36" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="35">
+      <c r="C36" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="34">
         <f>D37-D35</f>
         <v>2970</v>
       </c>
-      <c r="E36" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="36">
+      <c r="E36" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="35">
         <f>H37-H35</f>
         <v>2992.5</v>
       </c>
-      <c r="I36" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="K36" s="32"/>
+      <c r="I36" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="31"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
-      <c r="P36" s="32"/>
+      <c r="P36" s="31"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C37" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="35">
+      <c r="C37" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="34">
         <v>3000</v>
       </c>
-      <c r="E37" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="36">
+      <c r="E37" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="35">
         <v>3000</v>
       </c>
-      <c r="I37" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="K37" s="32"/>
+      <c r="I37" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" s="31"/>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="32"/>
+      <c r="P37" s="31"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
     </row>
@@ -2096,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -2104,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -2112,13 +2432,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -2126,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2134,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2142,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2150,12 +2470,12 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -2163,40 +2483,40 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56">
         <v>250</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D57">
         <v>20</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D58">
         <v>0.2</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D59">
         <f>20/0.2</f>
@@ -2208,41 +2528,41 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C61" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D61" s="8">
         <f>D63/D59</f>
         <v>12.5</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C62" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D62" s="8">
         <f>D63-D61</f>
         <v>1237.5</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C63" s="25" t="s">
-        <v>8</v>
+      <c r="C63" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="D63" s="7">
         <f>D55*D56</f>
         <v>1250</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2250,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2258,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2266,12 +2586,12 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2282,17 +2602,17 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D77">
         <v>400</v>
@@ -2300,7 +2620,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C78" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D78">
         <v>600</v>
@@ -2311,58 +2631,58 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C80" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D80" s="8">
         <f>D83/D77</f>
         <v>1.5</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C81" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D81" s="8">
         <f>D83/D78</f>
         <v>1</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C82" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D82" s="8">
         <f>D83</f>
         <v>600</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C83" s="25" t="s">
-        <v>8</v>
+      <c r="C83" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="D83" s="7">
         <v>600</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -2375,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -2383,12 +2703,12 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -2396,17 +2716,17 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D97">
         <v>400</v>
@@ -2414,7 +2734,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D98">
         <v>400</v>
@@ -2422,7 +2742,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D99">
         <v>100</v>
@@ -2430,67 +2750,67 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C101" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D101" s="8">
         <f>D105/D97</f>
         <v>0.5</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C102" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D102" s="8">
         <f>D105/D98</f>
         <v>0.5</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C103" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D103" s="8">
         <f>D105/D99</f>
         <v>2</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C104" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D104" s="8">
         <f>D105</f>
         <v>200</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M104" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C105" s="25" t="s">
-        <v>8</v>
+      <c r="C105" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="D105" s="7">
         <v>200</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -2498,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -2506,26 +2826,26 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D112" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C113" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D113">
         <v>1000</v>
       </c>
       <c r="E113" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G113" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H113">
         <v>5</v>
@@ -2533,18 +2853,18 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C114" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C115" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D115">
         <v>1000</v>
@@ -2555,41 +2875,41 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C117" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D117" s="8">
         <f>D119/D115</f>
         <v>0.5</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C118" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D118" s="8">
         <f>D119</f>
         <v>500</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C119" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D119" s="8">
         <f>100*H113</f>
         <v>500</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
@@ -2597,15 +2917,15 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A123" s="26" t="s">
+      <c r="A123" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
@@ -2613,23 +2933,23 @@
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="27"/>
-      <c r="M123" s="27"/>
-      <c r="N123" s="27"/>
-      <c r="O123" s="27"/>
-      <c r="P123" s="27"/>
-      <c r="Q123" s="27"/>
-      <c r="R123" s="27"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="26"/>
+      <c r="L123" s="26"/>
+      <c r="M123" s="26"/>
+      <c r="N123" s="26"/>
+      <c r="O123" s="26"/>
+      <c r="P123" s="26"/>
+      <c r="Q123" s="26"/>
+      <c r="R123" s="26"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
@@ -2637,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2664,48 +2984,1068 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865ABF89-C3DD-8A46-ACD0-DACCD4848C81}">
-  <dimension ref="A3:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E39BB3-9DB3-854C-B334-0F663BB94C97}">
+  <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="15"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B1" s="2">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="63"/>
+      <c r="O5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="66"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="72"/>
+      <c r="O7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="60"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="60"/>
+      <c r="O8" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="66"/>
+      <c r="O9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="54">
+        <v>65906</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="71"/>
+      <c r="O10" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M14" s="57"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="61"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="4"/>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="D31" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="16"/>
+      <c r="M31" t="s">
+        <v>107</v>
+      </c>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32">
+        <v>4000</v>
+      </c>
+      <c r="I32" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="L32" s="32"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="58">
+        <v>0.25</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" s="16"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D34">
+        <f>D32/D33</f>
+        <v>400</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <f>H32/H33</f>
+        <v>400</v>
+      </c>
+      <c r="K34" s="31"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K35" s="31"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C36" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="34">
+        <f>D37/D34</f>
+        <v>2.5</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="35">
+        <f>H37/H34</f>
+        <v>2.5</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="31"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C37" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="34">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="35">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" s="31"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M38" s="16"/>
+      <c r="R38" s="16"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56">
+        <v>250</v>
+      </c>
+      <c r="E56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58">
+        <v>0.2</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59">
+        <f>20/0.2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="8">
+        <f>D63/D59</f>
+        <v>12.5</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="8">
+        <f>D63-D61</f>
+        <v>1237.5</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C63" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="7">
+        <f>D55*D56</f>
+        <v>1250</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C79" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="8">
+        <f>D81/D77</f>
+        <v>0.1</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C80" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="8">
+        <f>D81</f>
+        <v>200</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C81" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="7">
+        <v>200</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="2">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C95" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C96" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C99" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" s="8">
+        <f>D103/D95</f>
+        <v>0.5</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C100" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" s="8">
+        <f>D103/D96</f>
+        <v>0.5</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C101" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D101" s="8">
+        <f>D103/D97</f>
+        <v>2</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C102" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" s="8">
+        <f>D103</f>
+        <v>200</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M102" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C103" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="7">
+        <v>200</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D110" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C111" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D111">
+        <v>1000</v>
+      </c>
+      <c r="E111" t="s">
+        <v>120</v>
+      </c>
+      <c r="G111" t="s">
+        <v>125</v>
+      </c>
+      <c r="H111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C112" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C115" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" s="8">
+        <f>D117/D113</f>
+        <v>0.5</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C116" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" s="8">
+        <f>D117</f>
+        <v>500</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="8">
+        <f>100*H111</f>
+        <v>500</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J120" s="26"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="26"/>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A121" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="26"/>
+      <c r="M121" s="26"/>
+      <c r="N121" s="26"/>
+      <c r="O121" s="26"/>
+      <c r="P121" s="26"/>
+      <c r="Q121" s="26"/>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R122" s="26"/>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="M9:N9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2714,8 +4054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B418F536-D2A8-4F42-BEB3-EBF867EDFB00}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2737,7 +4077,7 @@
     <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2745,56 +4085,56 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="28" t="s">
-        <v>25</v>
+      <c r="B6" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="28" t="s">
-        <v>18</v>
+      <c r="B8" s="27" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2806,7 +4146,7 @@
     <row r="13" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2817,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2828,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2843,7 +4183,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2852,63 +4192,63 @@
     <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="47"/>
     </row>
     <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="48"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="47"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="E30" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="52">
+        <v>34</v>
+      </c>
+      <c r="C31" s="51">
         <f>2*200</f>
         <v>400</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="51">
         <v>9.6</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="51">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2916,26 +4256,26 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D36" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="52">
+        <v>130</v>
+      </c>
+      <c r="D37" s="51">
         <v>200</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E37" s="51">
         <v>4.8</v>
       </c>
-      <c r="F37" s="52">
+      <c r="F37" s="51">
         <v>16</v>
       </c>
     </row>
@@ -2944,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2952,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2960,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2968,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2976,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2984,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -2992,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3000,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3008,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3017,13 +4357,296 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7FF243-707B-0A40-87A2-22C5C45DC450}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AA6687-62E1-8441-9354-0B15050C478B}">
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="47"/>
+    </row>
+    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="47"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C30" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="51">
+        <f>2*200</f>
+        <v>400</v>
+      </c>
+      <c r="D31" s="51">
+        <v>1.8</v>
+      </c>
+      <c r="E31" s="51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/optobiology.xlsx
+++ b/optobiology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janpiotraschke/git_repos/fachkurs_optobiology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291ABC9D-A1A5-7548-AAB3-F9D9BFADC5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F591D356-A802-4245-A367-EF8FA81FAC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="3" xr2:uid="{0747FCF5-9BB9-A240-971F-88470ED95DB6}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{0747FCF5-9BB9-A240-971F-88470ED95DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="1a-MT detyrosination" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="182">
   <si>
     <t>-</t>
   </si>
@@ -768,15 +768,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">in </t>
     </r>
     <r>
       <rPr>
@@ -796,7 +788,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t xml:space="preserve">in </t>
+      <t>in</t>
     </r>
     <r>
       <rPr>
@@ -806,7 +798,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PBS waschen -&gt;   5-10 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
+      <t xml:space="preserve"> BB-HE bei RT für 1h blocken</t>
     </r>
   </si>
   <si>
@@ -826,7 +818,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> BB-HE bei RT für 1h blocken</t>
+      <t xml:space="preserve"> PBS waschen -&gt;   5-10 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
     </r>
   </si>
   <si>
@@ -846,17 +838,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> PBS waschen -&gt;   5-10 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t>in</t>
+      <t xml:space="preserve"> PBS waschen -&gt; PBS rauf kurz schwenken und dann absaugen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1 mL</t>
     </r>
     <r>
       <rPr>
@@ -866,7 +853,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> PBS waschen -&gt;  </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -874,7 +861,17 @@
         <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>5-10 min</t>
+      <t>Wasser kurz reinpipettieren und absaugen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>500µL -1 mL</t>
     </r>
     <r>
       <rPr>
@@ -884,17 +881,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> inkubieren und wieder absaugen (2x insgesamt machen)</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> mit 4% PFA/4% sucrose in PBS fixieren für </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>in</t>
+      <t>10-15 min</t>
+    </r>
+  </si>
+  <si>
+    <t>Prepare the complete transfection mix in an Eppi:</t>
+  </si>
+  <si>
+    <t>add 200uL of each transfection mix dropwise on multiple positions to a well</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add the DNA and mix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">with the pipette </t>
     </r>
     <r>
       <rPr>
@@ -904,12 +918,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> PBS waschen -&gt; PBS rauf kurz schwenken und dann absaugen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1 mL</t>
+      <t>(3x in and out)</t>
+    </r>
+  </si>
+  <si>
+    <t>then add the fugene and mix with the pipette (3x in and out) carefully</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delute the 1ug/uL DNA with the 10x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">H2O </t>
     </r>
     <r>
       <rPr>
@@ -919,25 +944,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      <t>volume to 0.1ug/uL</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally: </t>
+  </si>
+  <si>
+    <t>EB3-GFP DNA  [0.1ug/uL]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incubate for 25min at room temperature </t>
+  </si>
+  <si>
+    <t>Notizen:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wachstum von MT findet nur in der Nähe der physiologischen </t>
+  </si>
+  <si>
+    <t>Temperatur (30°C) statt und zwar in Gegenwart von GTP</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>Wasser kurz reinpipettieren und absaugen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>500µL -1 mL</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -947,34 +990,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> mit 4% PFA/4% sucrose in PBS fixieren für </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+      <t xml:space="preserve">PBS waschen -&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>10-15 min</t>
-    </r>
-  </si>
-  <si>
-    <t>Prepare the complete transfection mix in an Eppi:</t>
-  </si>
-  <si>
-    <t>add 200uL of each transfection mix dropwise on multiple positions to a well</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">add the DNA and mix </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t xml:space="preserve">with the pipette </t>
+      <t xml:space="preserve">5-10 min inkubieren und wieder absaugen </t>
     </r>
     <r>
       <rPr>
@@ -984,23 +1008,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(3x in and out)</t>
-    </r>
-  </si>
-  <si>
-    <t>then add the fugene and mix with the pipette (3x in and out) carefully</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">delute the 1ug/uL DNA with the 10x </t>
-    </r>
+      <t>(3x insgesamt machen)</t>
+    </r>
+  </si>
+  <si>
+    <t>? 250 uL 0.2% Triton X 100 für 10 min in PBS inkubieren</t>
+  </si>
+  <si>
+    <t>Mouse anti-acetyl</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t xml:space="preserve">H2O </t>
+      <t>in</t>
     </r>
     <r>
       <rPr>
@@ -1010,26 +1034,131 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>volume to 0.1ug/uL</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Finally: </t>
-  </si>
-  <si>
-    <t>EB3-GFP DNA  [0.1ug/uL]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incubate for 25min at room temperature </t>
-  </si>
-  <si>
-    <t>Notizen:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wachstum von MT findet nur in der Nähe der physiologischen </t>
-  </si>
-  <si>
-    <t>Temperatur (30°C) statt und zwar in Gegenwart von GTP</t>
+      <t xml:space="preserve"> PBS waschen -&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>5-10 min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inkubieren und wieder absaugen (3x insgesamt machen)</t>
+    </r>
+  </si>
+  <si>
+    <t>40 uL pro Well mit 2° Antikörper in Blocking für 1h bei RT inkubieren -&gt; verkehrtherum abdecken</t>
+  </si>
+  <si>
+    <t>BB-HE</t>
+  </si>
+  <si>
+    <t>phalloidin-Alexa 488</t>
+  </si>
+  <si>
+    <r>
+      <t>100 uL DAPI (1ug/mL) pro Well für 10 min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>bei RT ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inkubieren -&gt; NICHT umdrehen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40 uL pro Well mit 2° Antikörper und </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>phalloidin-Alexa 488</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Blocklsg für </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1h bei RT inkubieren -&gt; verkehrtherum abdecken</t>
+    </r>
+  </si>
+  <si>
+    <t>Anti-tubulin</t>
+  </si>
+  <si>
+    <t>mouse anit-acetyl</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1538,6 +1667,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2985,15 +3123,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E39BB3-9DB3-854C-B334-0F663BB94C97}">
-  <dimension ref="A1:S124"/>
+  <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
@@ -3520,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3542,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3557,8 +3696,8 @@
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B53" t="s">
-        <v>31</v>
+      <c r="B53" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3658,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3666,14 +3805,14 @@
         <v>0</v>
       </c>
       <c r="B67" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3700,7 +3839,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="D77">
         <v>2000</v>
@@ -3711,7 +3850,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C79" s="6" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="D79" s="8">
         <f>D81/D77</f>
@@ -3722,8 +3861,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C80" s="6" t="s">
-        <v>51</v>
+      <c r="C80" s="74" t="s">
+        <v>175</v>
       </c>
       <c r="D80" s="8">
         <f>D81</f>
@@ -3732,7 +3871,7 @@
       <c r="E80" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="38" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3768,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3781,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3791,241 +3930,307 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D95">
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C96" s="1" t="s">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C97" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D96">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C97" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D97">
-        <v>100</v>
+      <c r="D97" s="8">
+        <f>D99/D95</f>
+        <v>0.5</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C98" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D98" s="8">
+        <f>D99</f>
+        <v>200</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M98" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C99" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D99" s="8">
-        <f>D103/D95</f>
-        <v>0.5</v>
+      <c r="C99" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="7">
+        <v>200</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C100" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D100" s="8">
-        <f>D103/D96</f>
-        <v>0.5</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>34</v>
+      <c r="F99" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C101" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D101" s="8">
-        <f>D103/D97</f>
-        <v>2</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C102" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D102" s="8">
-        <f>D103</f>
-        <v>200</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M102" t="s">
-        <v>118</v>
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="58" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C103" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="7">
-        <v>200</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>89</v>
+      <c r="B103" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="58" t="s">
+      <c r="B105" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C108" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D108">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="D109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C111" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D111" s="8">
+        <f>D114/D108</f>
+        <v>0.4</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C112" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="D112" s="8">
+        <f>D114/D109</f>
+        <v>2</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C113" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D113" s="8">
+        <f>D114</f>
+        <v>200</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M113" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C114" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="7">
+        <v>200</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B117" s="58"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B118" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D122" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C123" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D123">
+        <v>1000</v>
+      </c>
+      <c r="E123" t="s">
+        <v>120</v>
+      </c>
+      <c r="G123" t="s">
+        <v>125</v>
+      </c>
+      <c r="H123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C124" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C127" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" s="8">
+        <f>D129/D125</f>
+        <v>0.5</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C128" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D128" s="8">
+        <f>D129</f>
+        <v>500</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="8">
+        <f>100*H123</f>
+        <v>500</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J132" s="26"/>
+      <c r="K132" s="26"/>
+      <c r="L132" s="26"/>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A133" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="58" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D110" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C111" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D111">
-        <v>1000</v>
-      </c>
-      <c r="E111" t="s">
-        <v>120</v>
-      </c>
-      <c r="G111" t="s">
-        <v>125</v>
-      </c>
-      <c r="H111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C112" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C113" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C115" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D115" s="8">
-        <f>D117/D113</f>
-        <v>0.5</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C116" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D116" s="8">
-        <f>D117</f>
-        <v>500</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C117" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D117" s="8">
-        <f>100*H111</f>
-        <v>500</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="J120" s="26"/>
-      <c r="K120" s="26"/>
-      <c r="L120" s="26"/>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A121" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="26"/>
-      <c r="M121" s="26"/>
-      <c r="N121" s="26"/>
-      <c r="O121" s="26"/>
-      <c r="P121" s="26"/>
-      <c r="Q121" s="26"/>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R122" s="26"/>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="26"/>
+      <c r="M133" s="26"/>
+      <c r="N133" s="26"/>
+      <c r="O133" s="26"/>
+      <c r="P133" s="26"/>
+      <c r="Q133" s="26"/>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R134" s="26"/>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" t="s">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4360,7 +4565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AA6687-62E1-8441-9354-0B15050C478B}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -4466,13 +4671,13 @@
         <v>134</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -4480,10 +4685,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -4543,7 +4748,7 @@
         <v>140</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -4563,7 +4768,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4582,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4598,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -4606,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -4627,7 +4832,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -4635,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">

--- a/optobiology.xlsx
+++ b/optobiology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janpiotraschke/git_repos/fachkurs_optobiology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F591D356-A802-4245-A367-EF8FA81FAC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62041387-3C04-7742-96B7-19F53143E366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{0747FCF5-9BB9-A240-971F-88470ED95DB6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="186">
   <si>
     <t>-</t>
   </si>
@@ -750,9 +750,6 @@
     </r>
   </si>
   <si>
-    <t>mouse anti-acetyl-tubulin</t>
-  </si>
-  <si>
     <t>sc-23950</t>
   </si>
   <si>
@@ -1159,6 +1156,21 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Phalloidin-Atto-488</t>
+  </si>
+  <si>
+    <t>1° - mouse anti-acetyl-tubulin</t>
+  </si>
+  <si>
+    <t>2° - anti mouse Alexa Fluor 568</t>
+  </si>
+  <si>
+    <t>2° - anti tubulin- Alexa Fluor 647</t>
+  </si>
+  <si>
+    <t>A-11031</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1213,13 +1225,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Textkörper)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1514,7 +1519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1632,31 +1637,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1668,14 +1688,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2001,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32C55F2-64D1-5747-8AFC-58CEA49DB674}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2034,18 +2057,18 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="63"/>
+      <c r="N5" s="69"/>
       <c r="O5" s="18" t="s">
         <v>85</v>
       </c>
@@ -2063,18 +2086,18 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
       <c r="L6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="60"/>
+      <c r="N6" s="67"/>
       <c r="O6" s="17" t="s">
         <v>0</v>
       </c>
@@ -2092,18 +2115,18 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
       <c r="L7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="66" t="s">
+      <c r="M7" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="66"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="20" t="s">
         <v>0</v>
       </c>
@@ -2124,18 +2147,18 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="69"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68"/>
       <c r="L8" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="60" t="s">
+      <c r="M8" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="N8" s="60"/>
+      <c r="N8" s="67"/>
       <c r="O8" s="17" t="s">
         <v>80</v>
       </c>
@@ -2153,18 +2176,18 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
       <c r="L9" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="66" t="s">
+      <c r="M9" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="N9" s="66"/>
+      <c r="N9" s="70"/>
       <c r="O9" s="20" t="s">
         <v>81</v>
       </c>
@@ -2182,18 +2205,18 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="60" t="s">
+      <c r="M10" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="N10" s="60"/>
+      <c r="N10" s="67"/>
       <c r="O10" s="17" t="s">
         <v>82</v>
       </c>
@@ -2208,18 +2231,18 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
       <c r="L11" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="N11" s="68"/>
+      <c r="N11" s="65"/>
       <c r="O11" s="22" t="s">
         <v>83</v>
       </c>
@@ -2275,14 +2298,14 @@
     <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="C21" s="1"/>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61" t="s">
+      <c r="F21" s="67"/>
+      <c r="G21" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="61"/>
+      <c r="H21" s="71"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3100,6 +3123,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="M5:N5"/>
@@ -3108,14 +3139,6 @@
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3123,10 +3146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E39BB3-9DB3-854C-B334-0F663BB94C97}">
-  <dimension ref="A1:S136"/>
+  <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3137,12 +3160,12 @@
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" s="2">
         <v>44739</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>12</v>
@@ -3151,26 +3174,26 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="63"/>
+      <c r="N5" s="69"/>
       <c r="O5" s="18" t="s">
         <v>85</v>
       </c>
@@ -3181,115 +3204,115 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="I6" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
       <c r="L6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
       <c r="O6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="P6" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q6" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="Q6" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="72"/>
+      <c r="I7" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" s="70"/>
+      <c r="K7" s="77"/>
       <c r="L7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="72"/>
+      <c r="M7" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="77"/>
       <c r="O7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="54" t="s">
-        <v>69</v>
+        <v>81</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>185</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="69"/>
+      <c r="I8" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68"/>
       <c r="L8" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" s="60"/>
+      <c r="M8" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="81"/>
       <c r="O8" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="P8" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="I9" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
       <c r="L9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="66" t="s">
+      <c r="M9" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="N9" s="66"/>
+      <c r="N9" s="70"/>
       <c r="O9" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P9" s="54">
         <v>65906</v>
@@ -3298,25 +3321,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="71" t="s">
+      <c r="M10" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="N10" s="71"/>
+      <c r="N10" s="76"/>
       <c r="O10" s="55" t="s">
         <v>83</v>
       </c>
@@ -3326,7 +3349,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
         <v>25</v>
@@ -3335,7 +3358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="M14" s="57"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
@@ -3344,7 +3367,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -3355,7 +3378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -3387,14 +3410,12 @@
     <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="C21" s="1"/>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="61"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
       <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3459,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -3659,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3681,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3697,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3797,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3805,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3839,7 +3860,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D77">
         <v>2000</v>
@@ -3850,7 +3871,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C79" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D79" s="8">
         <f>D81/D77</f>
@@ -3861,8 +3882,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C80" s="74" t="s">
-        <v>175</v>
+      <c r="C80" s="63" t="s">
+        <v>174</v>
       </c>
       <c r="D80" s="8">
         <f>D81</f>
@@ -3907,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3920,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3949,8 +3970,8 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C98" s="74" t="s">
-        <v>175</v>
+      <c r="C98" s="63" t="s">
+        <v>174</v>
       </c>
       <c r="D98" s="8">
         <f>D99</f>
@@ -3982,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -3995,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -4005,7 +4026,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C108" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D108">
         <v>500</v>
@@ -4013,10 +4034,10 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>181</v>
-      </c>
-      <c r="C109" s="75" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="C109" s="64" t="s">
+        <v>175</v>
       </c>
       <c r="D109">
         <v>100</v>
@@ -4024,7 +4045,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C111" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D111" s="8">
         <f>D114/D108</f>
@@ -4035,8 +4056,8 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C112" s="73" t="s">
-        <v>176</v>
+      <c r="C112" s="62" t="s">
+        <v>175</v>
       </c>
       <c r="D112" s="8">
         <f>D114/D109</f>
@@ -4047,8 +4068,8 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C113" s="74" t="s">
-        <v>175</v>
+      <c r="C113" s="63" t="s">
+        <v>174</v>
       </c>
       <c r="D113" s="8">
         <f>D114</f>
@@ -4080,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="B116" s="58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -4096,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -4156,7 +4177,7 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C128" s="73" t="s">
+      <c r="C128" s="62" t="s">
         <v>37</v>
       </c>
       <c r="D128" s="8">
@@ -4187,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="B131" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
@@ -4200,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="B133" s="58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
@@ -4236,20 +4257,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="M9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4259,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B418F536-D2A8-4F42-BEB3-EBF867EDFB00}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4565,7 +4586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AA6687-62E1-8441-9354-0B15050C478B}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -4671,13 +4692,13 @@
         <v>134</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -4685,10 +4706,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -4748,7 +4769,7 @@
         <v>140</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -4768,7 +4789,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4787,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4803,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -4811,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -4832,7 +4853,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -4840,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">

--- a/optobiology.xlsx
+++ b/optobiology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janpiotraschke/git_repos/fachkurs_optobiology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62041387-3C04-7742-96B7-19F53143E366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71044647-EA85-7845-A399-B48829B0A898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{0747FCF5-9BB9-A240-971F-88470ED95DB6}"/>
   </bookViews>
@@ -3141,6 +3141,7 @@
     <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3148,8 +3149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E39BB3-9DB3-854C-B334-0F663BB94C97}">
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4273,6 +4274,7 @@
     <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4579,6 +4581,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4874,5 +4877,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/optobiology.xlsx
+++ b/optobiology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janpiotraschke/git_repos/fachkurs_optobiology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71044647-EA85-7845-A399-B48829B0A898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D8A116-4D80-0041-9AF5-28DFF3D0C627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{0747FCF5-9BB9-A240-971F-88470ED95DB6}"/>
+    <workbookView xWindow="360" yWindow="520" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{0747FCF5-9BB9-A240-971F-88470ED95DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="1a-MT detyrosination" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="2a-Lysosomes" sheetId="3" r:id="rId3"/>
     <sheet name="2b-EB3 comets" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1b-MT Acetylation'!$A$1:$S$136</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2b-EB3 comets'!$A$1:$F$49</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="185">
   <si>
     <t>-</t>
   </si>
@@ -166,33 +170,320 @@
     <t>Endconc</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t>500µM</t>
-    </r>
-    <r>
-      <rPr>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Student X</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Blocklsg</t>
+  </si>
+  <si>
+    <t>-&gt; Bei der kleinen Verdünnung macht das kein unterschied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocklösung absaugen </t>
+  </si>
+  <si>
+    <t>40 uL pro Well mit 1° Antikorper bei 4°C über Nacht inkubieren -&gt; verkehrtherum abdecken inkubieren (einfach umdrehen)</t>
+  </si>
+  <si>
+    <t>Platte umdrehen</t>
+  </si>
+  <si>
+    <t>phalloidin-Atto 647N</t>
+  </si>
+  <si>
+    <t>Antikörper</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Ref.Nr.</t>
+  </si>
+  <si>
+    <t>Hersteller</t>
+  </si>
+  <si>
+    <t>Phalloidin-Atto-647N</t>
+  </si>
+  <si>
+    <t>DAPI</t>
+  </si>
+  <si>
+    <t>1° - Rabbit anti-detyr-tubulin</t>
+  </si>
+  <si>
+    <t>1° - mouse anti-α-tubulin</t>
+  </si>
+  <si>
+    <t>2° - Anti mouse- Alexa Fluor 488</t>
+  </si>
+  <si>
+    <t>2° - Anti rabbit - Alexa Fluor 568</t>
+  </si>
+  <si>
+    <t>ab48389</t>
+  </si>
+  <si>
+    <t>T5168</t>
+  </si>
+  <si>
+    <t>A-11001</t>
+  </si>
+  <si>
+    <t>A-11036</t>
+  </si>
+  <si>
+    <t>Abcam</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>Thermo Fischer</t>
+  </si>
+  <si>
+    <t>Detyrosinates Alpha Tublin</t>
+  </si>
+  <si>
+    <t>Alpha Tubulin 4a</t>
+  </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>Mouse Antibodies</t>
+  </si>
+  <si>
+    <t>Rabbit Antibodies</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Antikörper/ Farbstoff</t>
+  </si>
+  <si>
+    <t>Farbstoff</t>
+  </si>
+  <si>
+    <t>40 uL pro Well mit 2° Antikörper und phalloidin-Atto 647N in Blocklsg für 1h bei RT inkubieren -&gt; verkehrtherum abdecken</t>
+  </si>
+  <si>
+    <t>100 uL DAPI (1ug/mL) pro Well für 10 min bei RT inkubieren -&gt; NICHT umdrehen</t>
+  </si>
+  <si>
+    <t>-&gt; Alles in ein Eppi herstellen</t>
+  </si>
+  <si>
+    <t>-&gt; alles in ein Eppi herstellen</t>
+  </si>
+  <si>
+    <t>Stoc conc</t>
+  </si>
+  <si>
+    <t>-&gt; oder gleich 1 mL herstellen</t>
+  </si>
+  <si>
+    <t>-&gt; in Lab 1</t>
+  </si>
+  <si>
+    <t>Eindeckeln mit Mowiol (Je nach Fläche 1-2 Tropfen raufgeben und mit einem Deckgläschen raufgeben)</t>
+  </si>
+  <si>
+    <t>Trocknen lassen und dann mikroskopieren</t>
+  </si>
+  <si>
+    <t>Platelayout</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Für 3 Wells (Überschuss) herstellen -&gt; 3mL</t>
+  </si>
+  <si>
+    <t>nM</t>
+  </si>
+  <si>
+    <t>Nach jeder Behandlung in den Inkubator bei 37°C/5% CO2</t>
+  </si>
+  <si>
+    <t>nach 2h Medium + Compound absaugen</t>
+  </si>
+  <si>
+    <t>10% FCS</t>
+  </si>
+  <si>
+    <t>Gibco Medium</t>
+  </si>
+  <si>
+    <t>Medium:</t>
+  </si>
+  <si>
+    <t>Substanzen jeweils in einem 5mL Eppi herstellen</t>
+  </si>
+  <si>
+    <t>Wenn es keine großen Pipetten gibt (Lila/rote Pipetten) dann das Volumen durch 3 Teilen</t>
+  </si>
+  <si>
+    <t>bsp</t>
+  </si>
+  <si>
+    <t>V = 2970</t>
+  </si>
+  <si>
+    <t>-&gt; 990 uL. Drei mal pipettieren</t>
+  </si>
+  <si>
+    <t>Wenn es kein Absaugmöglichkeit gibt, mit der Pipette einfach das wegpipettieren</t>
+  </si>
+  <si>
+    <t>1°Antibody</t>
+  </si>
+  <si>
+    <t>Anti-rabbit</t>
+  </si>
+  <si>
+    <t>Anti-mouse</t>
+  </si>
+  <si>
+    <t>2° Antibody</t>
+  </si>
+  <si>
+    <t>Hier 600 uL herstellen, damit man das kleinste Volumen mit 1uL pipettieren kann</t>
+  </si>
+  <si>
+    <t>Hier 200 uL herstellen -A für 5 Wells gerechnet</t>
+  </si>
+  <si>
+    <t>End Conc</t>
+  </si>
+  <si>
+    <t>ug/mL</t>
+  </si>
+  <si>
+    <t>Actin Filaments/NS</t>
+  </si>
+  <si>
+    <t>-&gt; NS = Nukleinsäuren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA </t>
+  </si>
+  <si>
+    <t>Medium absaugen und Zellen mit 1mL Substanz nach dem Platelayout behandeln -&gt; Zellen die nicht behandelt werden, noch nicht absaugen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellanzahl: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student 1 </t>
+  </si>
+  <si>
+    <t>Student 2</t>
+  </si>
+  <si>
+    <t>Fugene</t>
+  </si>
+  <si>
+    <t>lamp1 DNA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> mit 4% PFA/4% sucrose in PBS fixieren für 10-15 min</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t>per Well</t>
+    </r>
+  </si>
+  <si>
+    <t>incubate for 5min</t>
+  </si>
+  <si>
+    <t>Preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incubate for 15-20min at room temperature </t>
+  </si>
+  <si>
+    <t>preheat 15ml growing Medium in the water bath to 37°C</t>
+  </si>
+  <si>
+    <t>change the medium of the COS-7 cells to fresh medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfection Protocol </t>
+  </si>
+  <si>
+    <t>incubate</t>
+  </si>
+  <si>
+    <t>DMEM-</t>
+  </si>
+  <si>
+    <t>first add the DMEM-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fugene </t>
+  </si>
+  <si>
+    <t>lamp1 DNA  [0.1ug/uL]</t>
+  </si>
+  <si>
+    <t>repeat the transfection protocoll for the other Eppi</t>
+  </si>
+  <si>
+    <t>sc-23950</t>
+  </si>
+  <si>
+    <t>santa Cruz</t>
+  </si>
+  <si>
+    <t>Zellen sind schon im Medium, weshalb man nur DMSO und Taxol jeweils hinzugeben muss</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>1 mL</t>
+      <t xml:space="preserve">in </t>
     </r>
     <r>
       <rPr>
@@ -202,17 +493,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> PBS waschen -&gt;  5 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t>PBS waschen -&gt;   5-10 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>1 mL</t>
+      <t>in</t>
     </r>
     <r>
       <rPr>
@@ -226,43 +517,13 @@
     </r>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Student X</t>
-  </si>
-  <si>
-    <t>rabbit</t>
-  </si>
-  <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>Blocklsg</t>
-  </si>
-  <si>
-    <t>-&gt; Bei der kleinen Verdünnung macht das kein unterschied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blocklösung absaugen </t>
-  </si>
-  <si>
-    <t>40 uL pro Well mit 1° Antikorper bei 4°C über Nacht inkubieren -&gt; verkehrtherum abdecken inkubieren (einfach umdrehen)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>1 mL</t>
+      <t>in</t>
     </r>
     <r>
       <rPr>
@@ -272,128 +533,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> PBS waschen -&gt;  10 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
-    </r>
-  </si>
-  <si>
-    <t>Platte umdrehen</t>
-  </si>
-  <si>
-    <t>phalloidin-Atto 647N</t>
-  </si>
-  <si>
-    <t>Antikörper</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Ref.Nr.</t>
-  </si>
-  <si>
-    <t>Hersteller</t>
-  </si>
-  <si>
-    <t>Phalloidin-Atto-647N</t>
-  </si>
-  <si>
-    <t>DAPI</t>
-  </si>
-  <si>
-    <t>1° - Rabbit anti-detyr-tubulin</t>
-  </si>
-  <si>
-    <t>1° - mouse anti-α-tubulin</t>
-  </si>
-  <si>
-    <t>2° - Anti mouse- Alexa Fluor 488</t>
-  </si>
-  <si>
-    <t>2° - Anti rabbit - Alexa Fluor 568</t>
-  </si>
-  <si>
-    <t>ab48389</t>
-  </si>
-  <si>
-    <t>T5168</t>
-  </si>
-  <si>
-    <t>A-11001</t>
-  </si>
-  <si>
-    <t>A-11036</t>
-  </si>
-  <si>
-    <t>Abcam</t>
-  </si>
-  <si>
-    <t>Sigma</t>
-  </si>
-  <si>
-    <t>Thermo Fischer</t>
-  </si>
-  <si>
-    <t>Detyrosinates Alpha Tublin</t>
-  </si>
-  <si>
-    <t>Alpha Tubulin 4a</t>
-  </si>
-  <si>
-    <t>goat</t>
-  </si>
-  <si>
-    <t>Mouse Antibodies</t>
-  </si>
-  <si>
-    <t>Rabbit Antibodies</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>Antikörper/ Farbstoff</t>
-  </si>
-  <si>
-    <t>Farbstoff</t>
-  </si>
-  <si>
-    <t>40 uL pro Well mit 2° Antikörper und phalloidin-Atto 647N in Blocklsg für 1h bei RT inkubieren -&gt; verkehrtherum abdecken</t>
-  </si>
-  <si>
-    <t>100 uL DAPI (1ug/mL) pro Well für 10 min bei RT inkubieren -&gt; NICHT umdrehen</t>
-  </si>
-  <si>
-    <t>-&gt; Alles in ein Eppi herstellen</t>
-  </si>
-  <si>
-    <t>-&gt; alles in ein Eppi herstellen</t>
-  </si>
-  <si>
-    <t>Stoc conc</t>
-  </si>
-  <si>
-    <t>-&gt; oder gleich 1 mL herstellen</t>
-  </si>
-  <si>
-    <t>-&gt; in Lab 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> PBS waschen -&gt;   5-10 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>1 mL</t>
+      <t>in</t>
     </r>
     <r>
       <rPr>
@@ -413,7 +563,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -423,188 +573,57 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>Wasser (VE-Wasser oder normales)</t>
-    </r>
+      <t>Wasser kurz reinpipettieren und absaugen</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t xml:space="preserve"> kurz reinpipettieren und absaugen</t>
-    </r>
-  </si>
-  <si>
-    <t>Eindeckeln mit Mowiol (Je nach Fläche 1-2 Tropfen raufgeben und mit einem Deckgläschen raufgeben)</t>
-  </si>
-  <si>
-    <t>Trocknen lassen und dann mikroskopieren</t>
-  </si>
-  <si>
-    <t>Platelayout</t>
-  </si>
-  <si>
-    <t>Compound</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Für 3 Wells (Überschuss) herstellen -&gt; 3mL</t>
-  </si>
-  <si>
-    <t>nM</t>
-  </si>
-  <si>
-    <t>Nach jeder Behandlung in den Inkubator bei 37°C/5% CO2</t>
-  </si>
-  <si>
-    <t>nach 2h Medium + Compound absaugen</t>
-  </si>
-  <si>
-    <t>10% FCS</t>
-  </si>
-  <si>
-    <t>Gibco Medium</t>
-  </si>
-  <si>
-    <t>Medium:</t>
-  </si>
-  <si>
-    <t>Substanzen jeweils in einem 5mL Eppi herstellen</t>
-  </si>
-  <si>
-    <t>Wenn es keine großen Pipetten gibt (Lila/rote Pipetten) dann das Volumen durch 3 Teilen</t>
-  </si>
-  <si>
-    <t>bsp</t>
-  </si>
-  <si>
-    <t>V = 2970</t>
-  </si>
-  <si>
-    <t>-&gt; 990 uL. Drei mal pipettieren</t>
-  </si>
-  <si>
-    <t>Wenn es kein Absaugmöglichkeit gibt, mit der Pipette einfach das wegpipettieren</t>
-  </si>
-  <si>
-    <t>1°Antibody</t>
-  </si>
-  <si>
-    <t>Anti-rabbit</t>
-  </si>
-  <si>
-    <t>Anti-mouse</t>
-  </si>
-  <si>
-    <t>2° Antibody</t>
-  </si>
-  <si>
-    <t>Hier 600 uL herstellen, damit man das kleinste Volumen mit 1uL pipettieren kann</t>
-  </si>
-  <si>
-    <t>Hier 200 uL herstellen -A für 5 Wells gerechnet</t>
-  </si>
-  <si>
-    <t>End Conc</t>
-  </si>
-  <si>
-    <t>ug/mL</t>
-  </si>
-  <si>
-    <t>Actin Filaments/NS</t>
-  </si>
-  <si>
-    <t>-&gt; NS = Nukleinsäuren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA </t>
-  </si>
-  <si>
-    <t>Medium absaugen und Zellen mit 1mL Substanz nach dem Platelayout behandeln -&gt; Zellen die nicht behandelt werden, noch nicht absaugen!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wellanzahl: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student 1 </t>
-  </si>
-  <si>
-    <t>Student 2</t>
-  </si>
-  <si>
-    <t>Fugene</t>
-  </si>
-  <si>
-    <t>lamp1 DNA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">uL </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>500µL -1 mL</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>per Well</t>
-    </r>
-  </si>
-  <si>
-    <t>incubate for 5min</t>
-  </si>
-  <si>
-    <t>Preparation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incubate for 15-20min at room temperature </t>
-  </si>
-  <si>
-    <t>preheat 15ml growing Medium in the water bath to 37°C</t>
-  </si>
-  <si>
-    <t>change the medium of the COS-7 cells to fresh medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfection Protocol </t>
-  </si>
-  <si>
-    <t>incubate</t>
-  </si>
-  <si>
-    <t>DMEM-</t>
-  </si>
-  <si>
-    <t>first add the DMEM-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fugene </t>
-  </si>
-  <si>
-    <t>lamp1 DNA  [0.1ug/uL]</t>
-  </si>
-  <si>
-    <t>repeat the transfection protocoll for the other Eppi</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">delute the 1ug/uL DNA with the 10x </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> mit 4% PFA/4% sucrose in PBS fixieren für </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>H2O (Dnase/Rnase free Water or VE-Water)</t>
+      <t>10-15 min</t>
+    </r>
+  </si>
+  <si>
+    <t>Prepare the complete transfection mix in an Eppi:</t>
+  </si>
+  <si>
+    <t>add 200uL of each transfection mix dropwise on multiple positions to a well</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add the DNA and mix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">with the pipette </t>
     </r>
     <r>
       <rPr>
@@ -614,30 +633,64 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> volume to 0.1ug/uL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">then add the fugene and mix </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t>(3x in and out)</t>
+    </r>
+  </si>
+  <si>
+    <t>then add the fugene and mix with the pipette (3x in and out) carefully</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delute the 1ug/uL DNA with the 10x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">H2O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t>volume to 0.1ug/uL</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally: </t>
+  </si>
+  <si>
+    <t>EB3-GFP DNA  [0.1ug/uL]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incubate for 25min at room temperature </t>
+  </si>
+  <si>
+    <t>Notizen:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wachstum von MT findet nur in der Nähe der physiologischen </t>
+  </si>
+  <si>
+    <t>Temperatur (30°C) statt und zwar in Gegenwart von GTP</t>
+  </si>
+  <si>
+    <t>Mouse anti-acetyl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>how to mix?)</t>
+      <t>in</t>
     </r>
     <r>
       <rPr>
@@ -647,58 +700,65 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> carefully</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">add the DNA and mix </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> PBS waschen -&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>(how?)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Prepare the transfection mix in an Eppi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t>(or can we do it all in ones?)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>5-10 min</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">add 200uL of each transfection mix dropwise </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> inkubieren und wieder absaugen (3x insgesamt machen)</t>
+    </r>
+  </si>
+  <si>
+    <t>40 uL pro Well mit 2° Antikörper in Blocking für 1h bei RT inkubieren -&gt; verkehrtherum abdecken</t>
+  </si>
+  <si>
+    <t>BB-HE</t>
+  </si>
+  <si>
+    <t>phalloidin-Alexa 488</t>
+  </si>
+  <si>
+    <t>Anti-tubulin</t>
+  </si>
+  <si>
+    <t>mouse anit-acetyl</t>
+  </si>
+  <si>
+    <t>Phalloidin-Atto-488</t>
+  </si>
+  <si>
+    <t>1° - mouse anti-acetyl-tubulin</t>
+  </si>
+  <si>
+    <t>2° - anti mouse Alexa Fluor 568</t>
+  </si>
+  <si>
+    <t>2° - anti tubulin- Alexa Fluor 647</t>
+  </si>
+  <si>
+    <t>A-11031</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t xml:space="preserve">(also nicht an der Wand runterlaufen lassen !) </t>
+      <t xml:space="preserve">in </t>
     </r>
     <r>
       <rPr>
@@ -708,17 +768,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>to a well</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve">PBS waschen -&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>1 mL</t>
+      <t xml:space="preserve">5-10 min inkubieren und wieder absaugen </t>
     </r>
     <r>
       <rPr>
@@ -728,15 +786,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> PBS waschen -&gt;  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t>(3x insgesamt machen)</t>
+    </r>
+  </si>
+  <si>
+    <t>250 uL 0.2% Triton X 100 für 10 min in PBS inkubieren</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40 uL pro Well mit 2° Antikörper und </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>5-10 min</t>
+      <t>phalloidin-Alexa 488</t>
     </r>
     <r>
       <rPr>
@@ -746,46 +812,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> inkubieren und wieder absaugen (2x insgesamt machen)</t>
-    </r>
-  </si>
-  <si>
-    <t>sc-23950</t>
-  </si>
-  <si>
-    <t>santa Cruz</t>
-  </si>
-  <si>
-    <t>Zellen sind schon im Medium, weshalb man nur DMSO und Taxol jeweils hinzugeben muss</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t xml:space="preserve">in </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> in Blocklsg für </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PBS waschen -&gt;   5-10 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t>in</t>
+      <t>min</t>
     </r>
     <r>
       <rPr>
@@ -795,17 +833,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> BB-HE bei RT für 1h blocken</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t>in</t>
+      <t xml:space="preserve"> 1h bei RT inkubieren -&gt; verkehrtherum abdecken</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100 uL DAPI (1ug/mL) pro Well für 10 min</t>
     </r>
     <r>
       <rPr>
@@ -815,17 +848,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> PBS waschen -&gt;   5-10 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> (</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>in</t>
+      <t>bei RT</t>
     </r>
     <r>
       <rPr>
@@ -835,12 +866,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> PBS waschen -&gt; PBS rauf kurz schwenken und dann absaugen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1 mL</t>
+      <t>) inkubieren -&gt; NICHT umdrehen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>500µM</t>
     </r>
     <r>
       <rPr>
@@ -850,25 +886,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      <t xml:space="preserve"> mit 4% PFA/4% sucrose in PBS fixieren für 10-15 min</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>Wasser kurz reinpipettieren und absaugen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t>500µL -1 mL</t>
+      <t>1 mL</t>
     </r>
     <r>
       <rPr>
@@ -878,34 +906,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> mit 4% PFA/4% sucrose in PBS fixieren für </t>
-    </r>
+      <t xml:space="preserve"> PBS waschen -&gt;  5 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>10-15 min</t>
-    </r>
-  </si>
-  <si>
-    <t>Prepare the complete transfection mix in an Eppi:</t>
-  </si>
-  <si>
-    <t>add 200uL of each transfection mix dropwise on multiple positions to a well</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">add the DNA and mix </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t xml:space="preserve">with the pipette </t>
+      <t>1 mL</t>
     </r>
     <r>
       <rPr>
@@ -915,23 +926,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(3x in and out)</t>
-    </r>
-  </si>
-  <si>
-    <t>then add the fugene and mix with the pipette (3x in and out) carefully</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">delute the 1ug/uL DNA with the 10x </t>
-    </r>
+      <t xml:space="preserve"> BB-HE bei RT für 1h blocken</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t xml:space="preserve">H2O </t>
+      <t>1 mL</t>
     </r>
     <r>
       <rPr>
@@ -941,26 +946,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>volume to 0.1ug/uL</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Finally: </t>
-  </si>
-  <si>
-    <t>EB3-GFP DNA  [0.1ug/uL]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incubate for 25min at room temperature </t>
-  </si>
-  <si>
-    <t>Notizen:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wachstum von MT findet nur in der Nähe der physiologischen </t>
-  </si>
-  <si>
-    <t>Temperatur (30°C) statt und zwar in Gegenwart von GTP</t>
+      <t xml:space="preserve"> PBS waschen -&gt;  10 min inkubieren und wieder absaugen (3x insgesamt machen)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -969,15 +956,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>1 mL</t>
     </r>
     <r>
       <rPr>
@@ -987,15 +966,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">PBS waschen -&gt;   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> PBS waschen -&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t xml:space="preserve">5-10 min inkubieren und wieder absaugen </t>
+      <t>5-10 min</t>
     </r>
     <r>
       <rPr>
@@ -1005,14 +984,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(3x insgesamt machen)</t>
-    </r>
-  </si>
-  <si>
-    <t>? 250 uL 0.2% Triton X 100 für 10 min in PBS inkubieren</t>
-  </si>
-  <si>
-    <t>Mouse anti-acetyl</t>
+      <t xml:space="preserve"> inkubieren und wieder absaugen (2x insgesamt machen)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1021,7 +994,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>in</t>
+      <t>1 mL</t>
     </r>
     <r>
       <rPr>
@@ -1031,15 +1004,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> PBS waschen -&gt;  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t>5-10 min</t>
+      <t xml:space="preserve"> PBS waschen -&gt; PBS rauf kurz schwenken und dann absaugen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1 mL</t>
     </r>
     <r>
       <rPr>
@@ -1049,128 +1019,71 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> inkubieren und wieder absaugen (3x insgesamt machen)</t>
-    </r>
-  </si>
-  <si>
-    <t>40 uL pro Well mit 2° Antikörper in Blocking für 1h bei RT inkubieren -&gt; verkehrtherum abdecken</t>
-  </si>
-  <si>
-    <t>BB-HE</t>
-  </si>
-  <si>
-    <t>phalloidin-Alexa 488</t>
-  </si>
-  <si>
-    <r>
-      <t>100 uL DAPI (1ug/mL) pro Well für 10 min</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Wasser kurz reinpipettieren und absaugen</t>
+    </r>
+  </si>
+  <si>
+    <t>Prepare the transfection mix in an Eppi:</t>
+  </si>
+  <si>
+    <t>then add the fugene and mix carefully</t>
+  </si>
+  <si>
+    <t>add the DNA and mix</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add 200uL of each transfection mix dropwise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">(also nicht an der Wand runterlaufen lassen !) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t>to a well</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delute the 1ug/uL DNA with the 10x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>bei RT ?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve">H2O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inkubieren -&gt; NICHT umdrehen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">40 uL pro Well mit 2° Antikörper und </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t>phalloidin-Alexa 488</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in Blocklsg für </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>min</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1h bei RT inkubieren -&gt; verkehrtherum abdecken</t>
-    </r>
-  </si>
-  <si>
-    <t>Anti-tubulin</t>
-  </si>
-  <si>
-    <t>mouse anit-acetyl</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Phalloidin-Atto-488</t>
-  </si>
-  <si>
-    <t>1° - mouse anti-acetyl-tubulin</t>
-  </si>
-  <si>
-    <t>2° - anti mouse Alexa Fluor 568</t>
-  </si>
-  <si>
-    <t>2° - anti tubulin- Alexa Fluor 647</t>
-  </si>
-  <si>
-    <t>A-11031</t>
+      <t>volume to 0.1ug/uL</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1180,7 +1093,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1205,11 +1118,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Textkörper)"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1221,10 +1129,11 @@
       <name val="Calibri (Textkörper)"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Textkörper)"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1569,10 +1478,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1594,13 +1503,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1640,43 +1546,52 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1685,20 +1600,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2024,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32C55F2-64D1-5747-8AFC-58CEA49DB674}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2046,7 +1957,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2057,26 +1968,26 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="I5" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
       <c r="L5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="69"/>
+      <c r="M5" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="65"/>
       <c r="O5" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -2087,25 +1998,25 @@
         <v>23</v>
       </c>
       <c r="I6" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="62"/>
+      <c r="O6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" s="67"/>
-      <c r="O6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="12" t="s">
+      <c r="Q6" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -2115,29 +2026,29 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="68"/>
+      <c r="O7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="70"/>
-      <c r="O7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="21" t="s">
+      <c r="Q7" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="20" t="s">
-        <v>73</v>
-      </c>
       <c r="R7" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -2148,25 +2059,25 @@
         <v>20</v>
       </c>
       <c r="I8" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="62"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="62"/>
+      <c r="O8" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" s="67"/>
-      <c r="O8" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" s="12" t="s">
+      <c r="Q8" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -2176,26 +2087,26 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="68"/>
+      <c r="O9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="70"/>
-      <c r="O9" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>71</v>
-      </c>
       <c r="Q9" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -2206,45 +2117,45 @@
         <v>22</v>
       </c>
       <c r="I10" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
+        <v>58</v>
+      </c>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
       <c r="L10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="N10" s="67"/>
+      <c r="M10" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="62"/>
       <c r="O10" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P10" s="12">
         <v>65906</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="R10" s="44" t="s">
-        <v>122</v>
+        <v>69</v>
+      </c>
+      <c r="R10" s="41" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
+      <c r="I11" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" s="65"/>
+      <c r="M11" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="70"/>
       <c r="O11" s="22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P11" s="23"/>
       <c r="Q11" s="22"/>
@@ -2263,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -2287,25 +2198,25 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="C21" s="1"/>
-      <c r="E21" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="71"/>
+      <c r="E21" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="63"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2314,10 +2225,10 @@
       <c r="D22" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="43" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="14"/>
@@ -2330,10 +2241,10 @@
       <c r="D23" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="43" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="14"/>
@@ -2357,7 +2268,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -2365,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -2376,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="M30" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -2388,7 +2299,7 @@
         <v>100</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -2397,14 +2308,14 @@
         <v>4000</v>
       </c>
       <c r="I31" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L31" s="16"/>
-      <c r="M31" s="42" t="s">
-        <v>108</v>
+      <c r="M31" s="39" t="s">
+        <v>102</v>
       </c>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
@@ -2416,11 +2327,11 @@
       <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="55">
         <v>1</v>
       </c>
-      <c r="E32" s="38" t="s">
-        <v>99</v>
+      <c r="E32" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -2429,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>101</v>
-      </c>
-      <c r="K32" s="41" t="s">
-        <v>104</v>
+        <v>95</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>98</v>
       </c>
       <c r="L32" s="32"/>
       <c r="M32" s="33"/>
@@ -2457,13 +2368,13 @@
         <f>H31/H32</f>
         <v>400</v>
       </c>
-      <c r="K33" s="41" t="s">
-        <v>105</v>
+      <c r="K33" s="38" t="s">
+        <v>99</v>
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O33" s="16"/>
       <c r="P33" s="31"/>
@@ -2475,7 +2386,7 @@
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="31"/>
@@ -2483,20 +2394,21 @@
       <c r="R34" s="16"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="79">
         <f>D37/D33</f>
         <v>30</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="35" t="s">
+      <c r="F35" s="55"/>
+      <c r="G35" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="80">
         <f>H37/H33</f>
         <v>7.5</v>
       </c>
@@ -2506,8 +2418,8 @@
       <c r="K35" s="31"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="43" t="s">
-        <v>111</v>
+      <c r="N35" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="O35" s="16"/>
       <c r="P35" s="31"/>
@@ -2515,20 +2427,21 @@
       <c r="R35" s="16"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="79">
         <f>D37-D35</f>
         <v>2970</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="F36" s="55"/>
+      <c r="G36" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="80">
         <f>H37-H35</f>
         <v>2992.5</v>
       </c>
@@ -2577,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -2585,15 +2498,15 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" t="s">
-        <v>42</v>
+      <c r="B43" s="55" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2614,8 +2527,8 @@
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" t="s">
-        <v>43</v>
+      <c r="B49" s="55" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2655,13 +2568,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D57">
         <v>20</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2672,7 +2585,7 @@
         <v>0.2</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2730,16 +2643,16 @@
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B65" t="s">
-        <v>43</v>
+      <c r="B65" s="55" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" t="s">
-        <v>44</v>
+      <c r="B67" s="55" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2747,12 +2660,12 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2763,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2773,7 +2686,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D77">
         <v>400</v>
@@ -2781,7 +2694,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C78" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D78">
         <v>600</v>
@@ -2792,7 +2705,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C80" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D80" s="8">
         <f>D83/D77</f>
@@ -2804,7 +2717,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C81" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D81" s="8">
         <f>D83/D78</f>
@@ -2816,7 +2729,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C82" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D82" s="8">
         <f>D83</f>
@@ -2826,10 +2739,10 @@
         <v>34</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M82" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -2843,7 +2756,7 @@
         <v>34</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -2856,20 +2769,20 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B90" t="s">
-        <v>55</v>
+      <c r="B90" s="55" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -2877,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -2887,7 +2800,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D97">
         <v>400</v>
@@ -2895,7 +2808,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D98">
         <v>400</v>
@@ -2903,7 +2816,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D99">
         <v>100</v>
@@ -2911,7 +2824,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C101" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D101" s="8">
         <f>D105/D97</f>
@@ -2923,7 +2836,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C102" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D102" s="8">
         <f>D105/D98</f>
@@ -2935,7 +2848,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C103" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D103" s="8">
         <f>D105/D99</f>
@@ -2947,7 +2860,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C104" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D104" s="8">
         <f>D105</f>
@@ -2957,7 +2870,7 @@
         <v>34</v>
       </c>
       <c r="M104" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -2971,15 +2884,15 @@
         <v>34</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B107" t="s">
-        <v>148</v>
+      <c r="B107" s="55" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -2987,26 +2900,26 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D112" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C113" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D113">
         <v>1000</v>
       </c>
       <c r="E113" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G113" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H113">
         <v>5</v>
@@ -3014,13 +2927,13 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C114" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
@@ -3036,7 +2949,7 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C117" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D117" s="8">
         <f>D119/D115</f>
@@ -3070,23 +2983,23 @@
         <v>34</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B121" t="s">
-        <v>93</v>
+      <c r="B121" s="55" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>94</v>
+      <c r="B123" s="55" t="s">
+        <v>179</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
@@ -3110,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
@@ -3118,11 +3031,19 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I5:K5"/>
@@ -3131,14 +3052,6 @@
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3149,8 +3062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E39BB3-9DB3-854C-B334-0F663BB94C97}">
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3172,7 +3085,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3183,26 +3096,26 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="I5" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
       <c r="L5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="69"/>
+      <c r="M5" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="65"/>
       <c r="O5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" s="53" t="s">
-        <v>60</v>
+        <v>81</v>
+      </c>
+      <c r="P5" s="50" t="s">
+        <v>56</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -3213,23 +3126,23 @@
         <v>23</v>
       </c>
       <c r="I6" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
+        <v>165</v>
+      </c>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
       <c r="L6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
+        <v>47</v>
+      </c>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
       <c r="O6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="52" t="s">
-        <v>149</v>
+      <c r="P6" s="49" t="s">
+        <v>137</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -3239,30 +3152,30 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="77"/>
+      <c r="I7" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="74"/>
       <c r="L7" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="77"/>
+        <v>47</v>
+      </c>
+      <c r="M7" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="74"/>
       <c r="O7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="61" t="s">
-        <v>185</v>
+        <v>77</v>
+      </c>
+      <c r="P7" s="58" t="s">
+        <v>168</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R7" s="9"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
@@ -3272,25 +3185,25 @@
         <v>20</v>
       </c>
       <c r="I8" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="68"/>
+        <v>167</v>
+      </c>
+      <c r="J8" s="62"/>
+      <c r="K8" s="71"/>
       <c r="L8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="81"/>
+        <v>73</v>
+      </c>
+      <c r="M8" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="73"/>
       <c r="O8" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="61" t="s">
         <v>69</v>
-      </c>
-      <c r="Q8" s="79" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -3300,26 +3213,26 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
+      <c r="I9" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
       <c r="L9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="N9" s="70"/>
+      <c r="M9" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9" s="68"/>
       <c r="O9" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" s="54">
+        <v>76</v>
+      </c>
+      <c r="P9" s="51">
         <v>65906</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3330,25 +3243,24 @@
         <v>22</v>
       </c>
       <c r="I10" s="75" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J10" s="76"/>
       <c r="K10" s="76"/>
-      <c r="L10" s="55" t="s">
+      <c r="L10" s="52" t="s">
         <v>0</v>
       </c>
       <c r="M10" s="76" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="N10" s="76"/>
-      <c r="O10" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="44" t="s">
-        <v>122</v>
-      </c>
+      <c r="O10" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="11"/>
     </row>
     <row r="13" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
@@ -3360,7 +3272,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M14" s="57"/>
+      <c r="M14" s="54"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
@@ -3373,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -3397,12 +3309,12 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -3411,12 +3323,12 @@
     <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="C21" s="1"/>
-      <c r="E21" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
+      <c r="E21" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
       <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3425,10 +3337,10 @@
       <c r="D22" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="43" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="14"/>
@@ -3441,10 +3353,10 @@
       <c r="D23" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="43" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="14"/>
@@ -3465,7 +3377,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -3473,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -3481,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -3493,11 +3405,11 @@
         <v>2</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L31" s="16"/>
       <c r="M31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
@@ -3512,7 +3424,7 @@
         <v>100</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
@@ -3521,13 +3433,13 @@
         <v>4000</v>
       </c>
       <c r="I32" t="s">
-        <v>101</v>
-      </c>
-      <c r="K32" s="41" t="s">
-        <v>104</v>
+        <v>95</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>98</v>
       </c>
       <c r="L32" s="32"/>
-      <c r="M32" s="42"/>
+      <c r="M32" s="39"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
       <c r="P32" s="31"/>
@@ -3538,11 +3450,11 @@
       <c r="C33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="58">
+      <c r="D33" s="55">
         <v>0.25</v>
       </c>
-      <c r="E33" s="59" t="s">
-        <v>99</v>
+      <c r="E33" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="G33" t="s">
         <v>41</v>
@@ -3551,10 +3463,10 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>101</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>99</v>
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="33"/>
@@ -3592,7 +3504,7 @@
       <c r="K35" s="31"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="43"/>
+      <c r="N35" s="40"/>
       <c r="O35" s="16"/>
       <c r="P35" s="31"/>
       <c r="Q35" s="16"/>
@@ -3665,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -3673,15 +3585,15 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="58" t="s">
-        <v>157</v>
+      <c r="B43" s="55" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3702,7 +3614,7 @@
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="55" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3718,7 +3630,7 @@
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="55" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3743,13 +3655,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D57">
         <v>20</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3760,7 +3672,7 @@
         <v>0.2</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3819,28 +3731,28 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="58" t="s">
-        <v>153</v>
+      <c r="B67" s="55" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>53</v>
+      <c r="B69" s="55" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -3851,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -3861,7 +3773,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D77">
         <v>2000</v>
@@ -3872,7 +3784,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C79" s="6" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D79" s="8">
         <f>D81/D77</f>
@@ -3883,8 +3795,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C80" s="63" t="s">
-        <v>174</v>
+      <c r="C80" s="59" t="s">
+        <v>160</v>
       </c>
       <c r="D80" s="8">
         <f>D81</f>
@@ -3893,8 +3805,8 @@
       <c r="E80" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F80" s="38" t="s">
-        <v>52</v>
+      <c r="F80" s="56" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3908,7 +3820,7 @@
         <v>34</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3921,20 +3833,20 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="58" t="s">
-        <v>154</v>
+      <c r="B88" s="55" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3942,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3952,7 +3864,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D95">
         <v>400</v>
@@ -3960,7 +3872,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C97" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D97" s="8">
         <f>D99/D95</f>
@@ -3971,8 +3883,8 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C98" s="63" t="s">
-        <v>174</v>
+      <c r="C98" s="59" t="s">
+        <v>160</v>
       </c>
       <c r="D98" s="8">
         <f>D99</f>
@@ -3982,7 +3894,7 @@
         <v>34</v>
       </c>
       <c r="M98" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -3996,28 +3908,28 @@
         <v>34</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="58" t="s">
-        <v>172</v>
+      <c r="B101" s="55" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B105" t="s">
-        <v>177</v>
+      <c r="B105" s="55" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -4026,27 +3938,27 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C108" s="1" t="s">
-        <v>178</v>
+      <c r="C108" s="77" t="s">
+        <v>162</v>
       </c>
       <c r="D108">
         <v>500</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
-        <v>180</v>
-      </c>
-      <c r="C109" s="64" t="s">
-        <v>175</v>
+      <c r="C109" s="78" t="s">
+        <v>161</v>
       </c>
       <c r="D109">
         <v>100</v>
       </c>
     </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C110" s="55"/>
+    </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C111" s="6" t="s">
-        <v>178</v>
+      <c r="C111" s="59" t="s">
+        <v>162</v>
       </c>
       <c r="D111" s="8">
         <f>D114/D108</f>
@@ -4057,8 +3969,8 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C112" s="62" t="s">
-        <v>175</v>
+      <c r="C112" s="59" t="s">
+        <v>161</v>
       </c>
       <c r="D112" s="8">
         <f>D114/D109</f>
@@ -4069,8 +3981,8 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C113" s="63" t="s">
-        <v>174</v>
+      <c r="C113" s="59" t="s">
+        <v>160</v>
       </c>
       <c r="D113" s="8">
         <f>D114</f>
@@ -4080,7 +3992,7 @@
         <v>34</v>
       </c>
       <c r="M113" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -4094,50 +4006,50 @@
         <v>34</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="58" t="s">
-        <v>172</v>
+      <c r="B116" s="55" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B117" s="58"/>
+      <c r="B117" s="55"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B120" t="s">
-        <v>176</v>
+      <c r="B120" s="55" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D122" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C123" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D123">
         <v>1000</v>
       </c>
       <c r="E123" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G123" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H123">
         <v>5</v>
@@ -4145,13 +4057,13 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C124" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -4167,7 +4079,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C127" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D127" s="8">
         <f>D129/D125</f>
@@ -4178,7 +4090,7 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C128" s="62" t="s">
+      <c r="C128" s="59" t="s">
         <v>37</v>
       </c>
       <c r="D128" s="8">
@@ -4201,15 +4113,15 @@
         <v>34</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="58" t="s">
-        <v>155</v>
+      <c r="B131" s="55" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
@@ -4221,8 +4133,8 @@
       <c r="A133" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="58" t="s">
-        <v>156</v>
+      <c r="B133" s="55" t="s">
+        <v>144</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
@@ -4245,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
@@ -4253,11 +4165,17 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="M10:N10"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="M8:N8"/>
@@ -4266,15 +4184,9 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4282,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B418F536-D2A8-4F42-BEB3-EBF867EDFB00}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4374,7 +4286,7 @@
     <row r="13" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4385,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -4395,8 +4307,8 @@
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
-        <v>143</v>
+      <c r="B17" s="55" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -4411,7 +4323,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -4420,63 +4332,63 @@
     <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="47"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="44"/>
     </row>
     <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="44"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="48">
         <f>2*200</f>
         <v>400</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="48">
         <v>9.6</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="48">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -4484,26 +4396,26 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D36" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="51">
+        <v>124</v>
+      </c>
+      <c r="D37" s="48">
         <v>200</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="48">
         <v>4.8</v>
       </c>
-      <c r="F37" s="51">
+      <c r="F37" s="48">
         <v>16</v>
       </c>
     </row>
@@ -4512,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4520,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -4528,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -4536,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4544,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4552,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -4560,15 +4472,15 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>0</v>
       </c>
-      <c r="B51" t="s">
-        <v>147</v>
+      <c r="B51" s="55" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -4576,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4587,10 +4499,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AA6687-62E1-8441-9354-0B15050C478B}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4681,7 +4593,7 @@
     <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4692,27 +4604,27 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="58" t="s">
-        <v>162</v>
+      <c r="B17" s="55" t="s">
+        <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -4727,7 +4639,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -4736,63 +4648,63 @@
     <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="47"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="44"/>
     </row>
     <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="44"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C30" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="48">
         <f>2*200</f>
         <v>400</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="48">
         <v>1.8</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="48">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4803,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -4811,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4819,15 +4731,15 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="58" t="s">
-        <v>160</v>
+      <c r="C40" s="55" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -4835,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -4843,40 +4755,32 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
-      <c r="C47" t="s">
-        <v>135</v>
+      <c r="B47" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>137</v>
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>